--- a/src/text/博客成绩.xlsx
+++ b/src/text/博客成绩.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="14340"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="292">
   <si>
     <t>学号</t>
   </si>
@@ -28,6 +28,9 @@
     <t>博客成绩</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>1170300127</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>张秉龙</t>
   </si>
   <si>
+    <t>url地址为空。</t>
+  </si>
+  <si>
     <t>1173710203</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
   </si>
   <si>
     <t>chen-py.github.io</t>
+  </si>
+  <si>
+    <t>不是csdn博客。</t>
   </si>
   <si>
     <t>1190200421</t>
@@ -887,18 +896,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,347 +909,18 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1254,314 +928,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1844,24 +1228,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="3" width="85.2596153846154" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1874,892 +1253,937 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>56</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -2767,13 +2191,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -2781,13 +2205,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -2795,13 +2219,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2809,13 +2233,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -2823,13 +2247,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2837,13 +2261,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -2851,13 +2275,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -2865,13 +2289,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -2879,13 +2303,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -2893,13 +2317,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -2907,13 +2331,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -2921,13 +2345,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -2935,13 +2359,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2949,13 +2373,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2963,345 +2387,350 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D97">
         <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://blog.csdn.net/qq_41088245?spm=1001.2014.3001.5343"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://blog.csdn.net/weixin_42250444?spm=1000.2115.3001.5343&amp;type=blog"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://blog.csdn.net/eliforsharon"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://blog.csdn.net/m0_46313334?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://blog.csdn.net/m0_47411878"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://blog.csdn.net/qq_45761488?type=blog"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://blog.csdn.net/qq_52376202?spm=1001.2100.3001.5343"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://blog.csdn.net/Prototypen?spm=1011.2124.3001.5343"/>
-    <hyperlink ref="C11" r:id="rId9" display="https://blog.csdn.net/qq_52316864/"/>
-    <hyperlink ref="C12" r:id="rId10" display="https://blog.csdn.net/qq_45499104?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C13" r:id="rId11" display="https://blog.csdn.net/reworoReol"/>
-    <hyperlink ref="C14" r:id="rId12" display="https://blog.csdn.net/qq_53122692?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C15" r:id="rId13" display="https://blog.csdn.net/Ma_tthew?spm=1011.2124.3001.5343"/>
-    <hyperlink ref="C16" r:id="rId14" display="https://blog.csdn.net/m0_51191441/"/>
-    <hyperlink ref="C17" r:id="rId15" display="https://blog.csdn.net/von_Neumann_"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://blog.csdn.net/qq_47525029"/>
-    <hyperlink ref="C22" r:id="rId17" display="https://blog.csdn.net/qq_51243006"/>
-    <hyperlink ref="C23" r:id="rId18" display="https://blog.csdn.net/new_sailor?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C24" r:id="rId19" display="https://www.cnblogs.com/zjh2857"/>
-    <hyperlink ref="C26" r:id="rId20" display="https://blog.csdn.net/weixin_52286779/"/>
-    <hyperlink ref="C27" r:id="rId21" display="https://blog.csdn.net/worldvagrant?spm=1001.2100.3001.5343"/>
-    <hyperlink ref="C28" r:id="rId22" display="http://blog.csdn.net/qq_36640818/"/>
-    <hyperlink ref="C29" r:id="rId23" display="https://blog.csdn.net/weixin_53942582?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C30" r:id="rId24" display="https://blog.csdn.net/lxcshax?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C31" r:id="rId25" display="https://blog.csdn.net/liyu1190200820?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C32" r:id="rId26" display="https://blog.csdn.net/weixin_48751654/"/>
-    <hyperlink ref="C33" r:id="rId27" display="https://blog.csdn.net/AlexaderLex"/>
-    <hyperlink ref="C34" r:id="rId28" display="https://blog.csdn.net/qq_55354822?spm=1000.2115.3001.5343&amp;type=blog"/>
-    <hyperlink ref="C35" r:id="rId29" display="https://blog.csdn.net/m0_54196701?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C36" r:id="rId30" display="https://blog.csdn.net/qq_45775940"/>
-    <hyperlink ref="C37" r:id="rId31" display="https://blog.csdn.net/qq_52999666"/>
-    <hyperlink ref="C38" r:id="rId32" display="https://blog.csdn.net/Gravitas"/>
-    <hyperlink ref="C39" r:id="rId33" display="https://blog.csdn.net/weixin_45830636?spm=1008.2028.3001.5343"/>
-    <hyperlink ref="C40" r:id="rId34" display="https://www.cnblogs.com/BAKA-HIT/"/>
-    <hyperlink ref="C41" r:id="rId35" display="https://blog.csdn.net/xiaisdien?spm=1010.2135.3001.5343"/>
-    <hyperlink ref="C42" r:id="rId36" display="https://blog.csdn.net/CHITUZ"/>
-    <hyperlink ref="C43" r:id="rId37" display="https://blog.csdn.net/HIT_tian?spm=1001.2100.3001.5343"/>
-    <hyperlink ref="C44" r:id="rId38" display="https://blog.csdn.net/m0_58013789"/>
-    <hyperlink ref="C45" r:id="rId39" display="https://blog.csdn.net/qq_45351564?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C46" r:id="rId40" display="https://blog.csdn.net/m0_46163724?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C47" r:id="rId41" display="https://blog.csdn.net/qq_45909359?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C48" r:id="rId42" display="https://blog.csdn.net/qq_45809065?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C49" r:id="rId43" display="https://hills-code.github.io/"/>
-    <hyperlink ref="C50" r:id="rId44" display="https://starlooo.github.io/"/>
-    <hyperlink ref="C51" r:id="rId45" display="https://blog.csdn.net/qq_46013709"/>
-    <hyperlink ref="C52" r:id="rId46" display="https://blog.csdn.net/weixin_53506631"/>
-    <hyperlink ref="C53" r:id="rId47" display="https://blog.csdn.net/m0_46991095?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C54" r:id="rId48" display="https://blog.csdn.net/ag_killer?spm=1001.2014.3001.5343"/>
-    <hyperlink ref="C57" r:id="rId49" display="https://blog.csdn.net/Keiun"/>
-    <hyperlink ref="C58" r:id="rId50" display="https://nasty-morning.github.io/"/>
-    <hyperlink ref="C59" r:id="rId51" display="https://blog.csdn.net/huiyiiiiii?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C60" r:id="rId52" display="https://luxuriant0116.github.io/luxuriant.github.io/"/>
-    <hyperlink ref="C61" r:id="rId53" display="https://blog.csdn.net/weixin_47359411?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C62" r:id="rId54" display="https://blog.csdn.net/weixin_49729661/"/>
-    <hyperlink ref="C63" r:id="rId55" display="https://www.cnblogs.com/lllllllm"/>
-    <hyperlink ref="C64" r:id="rId56" display="https://blog.csdn.net/MOB2333?spm=1011.2124.3001.5343"/>
-    <hyperlink ref="C65" r:id="rId57" display="https://blog.csdn.net/GrHand?spm=1011.2124.3001.5343"/>
-    <hyperlink ref="C66" r:id="rId58" display="https://blog.csdn.net/acsssssss"/>
-    <hyperlink ref="C67" r:id="rId59" display="https://blog.csdn.net/rerisingstar"/>
-    <hyperlink ref="C68" r:id="rId60" display="https://blog.csdn.net/qq_40450896"/>
-    <hyperlink ref="C69" r:id="rId61" display="https://blog.csdn.net/OKClu?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C70" r:id="rId62" display="https://blog.csdn.net/qq_48862714/"/>
-    <hyperlink ref="C71" r:id="rId63" display="https://blog.csdn.net/zhuzyibooooo/"/>
-    <hyperlink ref="C72" r:id="rId64" display="https://blog.csdn.net/m0_46259572?spm=1011.2124.3001.4477"/>
-    <hyperlink ref="C73" r:id="rId65" display="https://blog.csdn.net/Annabel6"/>
-    <hyperlink ref="C74" r:id="rId66" display="https://blog.csdn.net/piapia12138?spm=1010.2135.3001.5343"/>
-    <hyperlink ref="C75" r:id="rId67" display="https://blog.csdn.net/weixin_46219578"/>
-    <hyperlink ref="C76" r:id="rId68" display="https://blog.csdn.net/Skyrious/"/>
-    <hyperlink ref="C77" r:id="rId69" display="https://blog.csdn.net/weixin_45607713/"/>
-    <hyperlink ref="C78" r:id="rId70" display="https://blog.csdn.net/Chikakawayi?spm=1010.2135.3001.5343"/>
-    <hyperlink ref="C79" r:id="rId71" display="https://blog.csdn.net/weixin_45653722"/>
-    <hyperlink ref="C80" r:id="rId72" display="https://blog.csdn.net/www01000134?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C81" r:id="rId73" display="https://blog.csdn.net/weixin_45608547/"/>
-    <hyperlink ref="C82" r:id="rId74" display="https://blog.csdn.net/Baigker?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C83" r:id="rId75" display="https://blog.csdn.net/tsien88?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C84" r:id="rId76" display="https://blog.csdn.net/royalcatnap?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C85" r:id="rId77" display="https://blog.csdn.net/weixin_46000396?spm=1001.2014.3001.5343"/>
-    <hyperlink ref="C86" r:id="rId78" display="https://blog.csdn.net/buckbarnes?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C87" r:id="rId79" display="https://blog.csdn.net/Louis210"/>
-    <hyperlink ref="C88" r:id="rId80" display="https://blog.csdn.net/qwertjkll?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C89" r:id="rId81" display="https://blog.csdn.net/a1112387?spm=1010.2135.3001.5421"/>
-    <hyperlink ref="C91" r:id="rId82" display="https://blog.csdn.net/weixin_45577864?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C92" r:id="rId83" display="https://blog.csdn.net/qq_45688633?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C93" r:id="rId84" display="https://blog.csdn.net/kekoxl?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C94" r:id="rId85" display="https://blog.csdn.net/Pin_BOY?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C95" r:id="rId86" display="https://blog.csdn.net/weixin_54572146?spm=1000.2115.3001.5343"/>
-    <hyperlink ref="C96" r:id="rId87" display="https://blog.csdn.net/m0_51250400?spm=1001.2014.3001.5343"/>
-    <hyperlink ref="C97" r:id="rId88" display="https://www.cnblogs.com/komeiji-green/"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C23" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19"/>
+    <hyperlink ref="C26" r:id="rId20"/>
+    <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="C28" r:id="rId22"/>
+    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId24"/>
+    <hyperlink ref="C31" r:id="rId25"/>
+    <hyperlink ref="C32" r:id="rId26"/>
+    <hyperlink ref="C33" r:id="rId27"/>
+    <hyperlink ref="C34" r:id="rId28"/>
+    <hyperlink ref="C35" r:id="rId29"/>
+    <hyperlink ref="C36" r:id="rId30"/>
+    <hyperlink ref="C37" r:id="rId31"/>
+    <hyperlink ref="C38" r:id="rId32"/>
+    <hyperlink ref="C39" r:id="rId33"/>
+    <hyperlink ref="C40" r:id="rId34"/>
+    <hyperlink ref="C41" r:id="rId35"/>
+    <hyperlink ref="C42" r:id="rId36"/>
+    <hyperlink ref="C43" r:id="rId37"/>
+    <hyperlink ref="C44" r:id="rId38"/>
+    <hyperlink ref="C45" r:id="rId39"/>
+    <hyperlink ref="C46" r:id="rId40"/>
+    <hyperlink ref="C47" r:id="rId41"/>
+    <hyperlink ref="C48" r:id="rId42"/>
+    <hyperlink ref="C49" r:id="rId43"/>
+    <hyperlink ref="C50" r:id="rId44"/>
+    <hyperlink ref="C51" r:id="rId45"/>
+    <hyperlink ref="C52" r:id="rId46"/>
+    <hyperlink ref="C53" r:id="rId47"/>
+    <hyperlink ref="C54" r:id="rId48"/>
+    <hyperlink ref="C57" r:id="rId49"/>
+    <hyperlink ref="C58" r:id="rId50"/>
+    <hyperlink ref="C59" r:id="rId51"/>
+    <hyperlink ref="C60" r:id="rId52"/>
+    <hyperlink ref="C61" r:id="rId53"/>
+    <hyperlink ref="C62" r:id="rId54"/>
+    <hyperlink ref="C63" r:id="rId55"/>
+    <hyperlink ref="C64" r:id="rId56"/>
+    <hyperlink ref="C65" r:id="rId57"/>
+    <hyperlink ref="C66" r:id="rId58"/>
+    <hyperlink ref="C67" r:id="rId59"/>
+    <hyperlink ref="C68" r:id="rId60"/>
+    <hyperlink ref="C69" r:id="rId61"/>
+    <hyperlink ref="C70" r:id="rId62"/>
+    <hyperlink ref="C71" r:id="rId63"/>
+    <hyperlink ref="C72" r:id="rId64"/>
+    <hyperlink ref="C73" r:id="rId65"/>
+    <hyperlink ref="C74" r:id="rId66"/>
+    <hyperlink ref="C75" r:id="rId67"/>
+    <hyperlink ref="C76" r:id="rId68"/>
+    <hyperlink ref="C77" r:id="rId69"/>
+    <hyperlink ref="C78" r:id="rId70"/>
+    <hyperlink ref="C79" r:id="rId71"/>
+    <hyperlink ref="C80" r:id="rId72"/>
+    <hyperlink ref="C81" r:id="rId73"/>
+    <hyperlink ref="C82" r:id="rId74"/>
+    <hyperlink ref="C83" r:id="rId75"/>
+    <hyperlink ref="C84" r:id="rId76"/>
+    <hyperlink ref="C85" r:id="rId77"/>
+    <hyperlink ref="C86" r:id="rId78"/>
+    <hyperlink ref="C87" r:id="rId79"/>
+    <hyperlink ref="C88" r:id="rId80"/>
+    <hyperlink ref="C89" r:id="rId81"/>
+    <hyperlink ref="C91" r:id="rId82"/>
+    <hyperlink ref="C92" r:id="rId83"/>
+    <hyperlink ref="C93" r:id="rId84"/>
+    <hyperlink ref="C94" r:id="rId85"/>
+    <hyperlink ref="C95" r:id="rId86"/>
+    <hyperlink ref="C96" r:id="rId87"/>
+    <hyperlink ref="C97" r:id="rId88"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/text/博客成绩.xlsx
+++ b/src/text/博客成绩.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1171">
   <si>
     <t>学号</t>
   </si>
@@ -46,7 +46,7 @@
     <t>张秉龙</t>
   </si>
   <si>
-    <t>url地址为空。</t>
+    <t>url地址为空</t>
   </si>
   <si>
     <t>1173710203</t>
@@ -67,6 +67,54 @@
     <t>https://blog.csdn.net/eliforsharon</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/117927289</t>
+  </si>
+  <si>
+    <t>相似度:0.32844892</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/118293443</t>
+  </si>
+  <si>
+    <t>相似度:0.83796287</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/118497543</t>
+  </si>
+  <si>
+    <t>相似度:0.6171769</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/118406201</t>
+  </si>
+  <si>
+    <t>相似度:0.9253012</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/118556995</t>
+  </si>
+  <si>
+    <t>相似度:0.83170706</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/116399242</t>
+  </si>
+  <si>
+    <t>相似度:0.7754299</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/118399375</t>
+  </si>
+  <si>
+    <t>相似度:0.88657546</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/eliforsharon/article/details/118344152</t>
+  </si>
+  <si>
+    <t>相似度:0.8848427</t>
+  </si>
+  <si>
     <t>1190100615</t>
   </si>
   <si>
@@ -76,6 +124,36 @@
     <t>https://blog.csdn.net/m0_46313334?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_46313334/article/details/118556961</t>
+  </si>
+  <si>
+    <t>相似度:0.84471303</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46313334/article/details/118556986</t>
+  </si>
+  <si>
+    <t>相似度:0.8908613</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46313334/article/details/118556111</t>
+  </si>
+  <si>
+    <t>相似度:0.71081245</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46313334/article/details/118500317</t>
+  </si>
+  <si>
+    <t>相似度:0.6169868</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46313334/article/details/118554456</t>
+  </si>
+  <si>
+    <t>相似度:0.8049892</t>
+  </si>
+  <si>
     <t>1190102107</t>
   </si>
   <si>
@@ -85,6 +163,108 @@
     <t>https://blog.csdn.net/m0_47411878</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118310992</t>
+  </si>
+  <si>
+    <t>相似度:0.5034875</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118389614</t>
+  </si>
+  <si>
+    <t>相似度:0.8690548</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118422359</t>
+  </si>
+  <si>
+    <t>相似度:0.94045126</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/116381332</t>
+  </si>
+  <si>
+    <t>相似度:0.8519314</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118385864</t>
+  </si>
+  <si>
+    <t>相似度:0.9707817</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118415373</t>
+  </si>
+  <si>
+    <t>相似度:0.8824419</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118438673</t>
+  </si>
+  <si>
+    <t>相似度:0.7593476</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118418522</t>
+  </si>
+  <si>
+    <t>相似度:0.9155701</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118439289</t>
+  </si>
+  <si>
+    <t>相似度:0.89242023</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118394341</t>
+  </si>
+  <si>
+    <t>相似度:0.91739744</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118310285</t>
+  </si>
+  <si>
+    <t>相似度:0.9309751</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118144807</t>
+  </si>
+  <si>
+    <t>相似度:0.3008834</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118078991</t>
+  </si>
+  <si>
+    <t>相似度:0.92984444</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/118458312</t>
+  </si>
+  <si>
+    <t>相似度:0.73837584</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/117837490</t>
+  </si>
+  <si>
+    <t>相似度:0.83198625</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/117838354</t>
+  </si>
+  <si>
+    <t>相似度:0.9305036</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_47411878/article/details/117898836</t>
+  </si>
+  <si>
+    <t>相似度:0.92435926</t>
+  </si>
+  <si>
     <t>1190200106</t>
   </si>
   <si>
@@ -94,6 +274,48 @@
     <t>https://blog.csdn.net/qq_45761488?type=blog</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118399851</t>
+  </si>
+  <si>
+    <t>相似度:0.7068331</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118396685</t>
+  </si>
+  <si>
+    <t>相似度:0.72896326</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118401891</t>
+  </si>
+  <si>
+    <t>相似度:0.95315015</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118401688</t>
+  </si>
+  <si>
+    <t>相似度:0.66325706</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118400256</t>
+  </si>
+  <si>
+    <t>相似度:0.6079937</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118104458</t>
+  </si>
+  <si>
+    <t>相似度:0.32970425</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45761488/article/details/118370861</t>
+  </si>
+  <si>
+    <t>相似度:0.46294287</t>
+  </si>
+  <si>
     <t>1190200109</t>
   </si>
   <si>
@@ -103,6 +325,48 @@
     <t>https://blog.csdn.net/qq_52376202?spm=1001.2100.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118501497</t>
+  </si>
+  <si>
+    <t>相似度:0.880116</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118446975</t>
+  </si>
+  <si>
+    <t>相似度:0.6957634</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118544025</t>
+  </si>
+  <si>
+    <t>相似度:0.45140973</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118361097</t>
+  </si>
+  <si>
+    <t>相似度:0.33713102</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118544294</t>
+  </si>
+  <si>
+    <t>相似度:0.8281223</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118532266</t>
+  </si>
+  <si>
+    <t>相似度:0.80680484</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_52376202/article/details/118501388</t>
+  </si>
+  <si>
+    <t>相似度:0.9384823</t>
+  </si>
+  <si>
     <t>1190200111</t>
   </si>
   <si>
@@ -112,6 +376,60 @@
     <t>https://blog.csdn.net/Prototypen?spm=1011.2124.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/117216573</t>
+  </si>
+  <si>
+    <t>相似度:0.85334957</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118467817</t>
+  </si>
+  <si>
+    <t>相似度:0.866164</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118114481</t>
+  </si>
+  <si>
+    <t>相似度:0.34099346</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/116460054</t>
+  </si>
+  <si>
+    <t>相似度:0.56340295</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118497002</t>
+  </si>
+  <si>
+    <t>相似度:0.49236256</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118468525</t>
+  </si>
+  <si>
+    <t>相似度:0.87909496</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118497501</t>
+  </si>
+  <si>
+    <t>相似度:0.61800367</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118467200</t>
+  </si>
+  <si>
+    <t>相似度:0.6614924</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Prototypen/article/details/118468828</t>
+  </si>
+  <si>
+    <t>相似度:0.8054315</t>
+  </si>
+  <si>
     <t>1190200201</t>
   </si>
   <si>
@@ -121,6 +439,12 @@
     <t>https://blog.csdn.net/qq_52316864/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_52316864/article/details/118539693</t>
+  </si>
+  <si>
+    <t>相似度:0.750474</t>
+  </si>
+  <si>
     <t>1190200208</t>
   </si>
   <si>
@@ -130,6 +454,48 @@
     <t>https://blog.csdn.net/qq_45499104?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/118538831</t>
+  </si>
+  <si>
+    <t>相似度:0.5963886</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/118538971</t>
+  </si>
+  <si>
+    <t>相似度:0.88910985</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/117200128</t>
+  </si>
+  <si>
+    <t>相似度:0.6546566</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/117378797</t>
+  </si>
+  <si>
+    <t>相似度:0.41101524</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/117416988</t>
+  </si>
+  <si>
+    <t>相似度:0.78825355</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/118224864</t>
+  </si>
+  <si>
+    <t>相似度:0.35997137</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45499104/article/details/117200471</t>
+  </si>
+  <si>
+    <t>相似度:0.84912974</t>
+  </si>
+  <si>
     <t>1190200226</t>
   </si>
   <si>
@@ -139,6 +505,24 @@
     <t>https://blog.csdn.net/reworoReol</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/reworoReol/article/details/118229976</t>
+  </si>
+  <si>
+    <t>相似度:0.35287458</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/reworoReol/article/details/117443483</t>
+  </si>
+  <si>
+    <t>相似度:0.62380326</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/reworoReol/article/details/118423551</t>
+  </si>
+  <si>
+    <t>相似度:0.8341053</t>
+  </si>
+  <si>
     <t>1190200303</t>
   </si>
   <si>
@@ -148,6 +532,24 @@
     <t>https://blog.csdn.net/qq_53122692?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_53122692/article/details/118366475</t>
+  </si>
+  <si>
+    <t>相似度:0.33697087</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_53122692/article/details/118498647</t>
+  </si>
+  <si>
+    <t>相似度:0.814585</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_53122692/article/details/118497724</t>
+  </si>
+  <si>
+    <t>相似度:0.82397175</t>
+  </si>
+  <si>
     <t>1190200310</t>
   </si>
   <si>
@@ -157,6 +559,48 @@
     <t>https://blog.csdn.net/Ma_tthew?spm=1011.2124.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/118547008</t>
+  </si>
+  <si>
+    <t>相似度:0.29466575</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/118547384</t>
+  </si>
+  <si>
+    <t>相似度:0.6424244</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/118371537</t>
+  </si>
+  <si>
+    <t>相似度:0.99382734</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/118547287</t>
+  </si>
+  <si>
+    <t>相似度:0.7680361</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/117428989</t>
+  </si>
+  <si>
+    <t>相似度:0.8480582</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/118547349</t>
+  </si>
+  <si>
+    <t>相似度:0.88499504</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Ma_tthew/article/details/118558029</t>
+  </si>
+  <si>
+    <t>相似度:0.72433805</t>
+  </si>
+  <si>
     <t>1190200407</t>
   </si>
   <si>
@@ -166,6 +610,18 @@
     <t>https://blog.csdn.net/m0_51191441/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_51191441/article/details/118353739</t>
+  </si>
+  <si>
+    <t>相似度:0.768255</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51191441/article/details/118273732</t>
+  </si>
+  <si>
+    <t>相似度:0.30363715</t>
+  </si>
+  <si>
     <t>1190200410</t>
   </si>
   <si>
@@ -175,6 +631,36 @@
     <t>https://blog.csdn.net/von_Neumann_</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/von_Neumann_/article/details/118273678</t>
+  </si>
+  <si>
+    <t>相似度:0.32130623</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/von_Neumann_/article/details/118353659</t>
+  </si>
+  <si>
+    <t>相似度:0.70895827</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/von_Neumann_/article/details/118353282</t>
+  </si>
+  <si>
+    <t>相似度:0.8936851</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/von_Neumann_/article/details/118528328</t>
+  </si>
+  <si>
+    <t>相似度:0.91860604</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/von_Neumann_/article/details/116377995</t>
+  </si>
+  <si>
+    <t>相似度:0.7500218</t>
+  </si>
+  <si>
     <t>1190200419</t>
   </si>
   <si>
@@ -184,7 +670,7 @@
     <t>chen-py.github.io</t>
   </si>
   <si>
-    <t>不是csdn博客。</t>
+    <t>不是csdn博客</t>
   </si>
   <si>
     <t>1190200421</t>
@@ -196,6 +682,48 @@
     <t>https://blog.csdn.net/qq_47525029</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118530438</t>
+  </si>
+  <si>
+    <t>相似度:0.780698</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118530369</t>
+  </si>
+  <si>
+    <t>相似度:0.8126301</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118557744</t>
+  </si>
+  <si>
+    <t>相似度:0.7452287</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118368487</t>
+  </si>
+  <si>
+    <t>相似度:0.36621308</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118557923</t>
+  </si>
+  <si>
+    <t>相似度:0.64289534</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118530476</t>
+  </si>
+  <si>
+    <t>相似度:0.8318814</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_47525029/article/details/118368551</t>
+  </si>
+  <si>
+    <t>相似度:0.3571233</t>
+  </si>
+  <si>
     <t>1190200506</t>
   </si>
   <si>
@@ -220,6 +748,42 @@
     <t>https://blog.csdn.net/qq_51243006</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_51243006/article/details/118554712</t>
+  </si>
+  <si>
+    <t>相似度:0.8956915</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_51243006/article/details/118529090</t>
+  </si>
+  <si>
+    <t>相似度:0.5044243</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_51243006/article/details/117199519</t>
+  </si>
+  <si>
+    <t>相似度:0.56889296</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_51243006/article/details/118555787</t>
+  </si>
+  <si>
+    <t>相似度:0.79068136</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_51243006/article/details/118342038</t>
+  </si>
+  <si>
+    <t>相似度:0.3172605</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_51243006/article/details/118530105</t>
+  </si>
+  <si>
+    <t>相似度:0.9259489</t>
+  </si>
+  <si>
     <t>1190200603</t>
   </si>
   <si>
@@ -229,6 +793,42 @@
     <t>https://blog.csdn.net/new_sailor?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/new_sailor/article/details/118496742</t>
+  </si>
+  <si>
+    <t>相似度:0.89271146</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/new_sailor/article/details/118498217</t>
+  </si>
+  <si>
+    <t>相似度:0.49912754</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/new_sailor/article/details/118499531</t>
+  </si>
+  <si>
+    <t>相似度:0.8201868</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/new_sailor/article/details/118499052</t>
+  </si>
+  <si>
+    <t>相似度:0.7417351</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/new_sailor/article/details/118304347</t>
+  </si>
+  <si>
+    <t>相似度:0.34682694</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/new_sailor/article/details/118497286</t>
+  </si>
+  <si>
+    <t>相似度:0.625418</t>
+  </si>
+  <si>
     <t>1190200606</t>
   </si>
   <si>
@@ -256,6 +856,42 @@
     <t>https://blog.csdn.net/weixin_52286779/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_52286779/article/details/118555902</t>
+  </si>
+  <si>
+    <t>相似度:0.8023891</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_52286779/article/details/118538550</t>
+  </si>
+  <si>
+    <t>相似度:0.7139091</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_52286779/article/details/118553859</t>
+  </si>
+  <si>
+    <t>相似度:0.75890666</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_52286779/article/details/118538544</t>
+  </si>
+  <si>
+    <t>相似度:0.67563146</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_52286779/article/details/118552728</t>
+  </si>
+  <si>
+    <t>相似度:0.8080553</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_52286779/article/details/118371625</t>
+  </si>
+  <si>
+    <t>相似度:0.31387848</t>
+  </si>
+  <si>
     <t>1190200721</t>
   </si>
   <si>
@@ -265,6 +901,30 @@
     <t>https://blog.csdn.net/worldvagrant?spm=1001.2100.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/worldvagrant/article/details/117091193</t>
+  </si>
+  <si>
+    <t>相似度:0.8009827</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/worldvagrant/article/details/117868526</t>
+  </si>
+  <si>
+    <t>相似度:0.4736927</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/worldvagrant/article/details/118540919</t>
+  </si>
+  <si>
+    <t>相似度:0.9500835</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/worldvagrant/article/details/118230014</t>
+  </si>
+  <si>
+    <t>相似度:0.29948294</t>
+  </si>
+  <si>
     <t>1190200728</t>
   </si>
   <si>
@@ -274,6 +934,24 @@
     <t>http://blog.csdn.net/qq_36640818/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_36640818/article/details/118545055</t>
+  </si>
+  <si>
+    <t>相似度:0.88068396</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_36640818/article/details/118544708</t>
+  </si>
+  <si>
+    <t>相似度:0.47350585</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_36640818/article/details/118546453</t>
+  </si>
+  <si>
+    <t>相似度:0.8898866</t>
+  </si>
+  <si>
     <t>1190200801</t>
   </si>
   <si>
@@ -283,6 +961,18 @@
     <t>https://blog.csdn.net/weixin_53942582?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_53942582/article/details/118554687</t>
+  </si>
+  <si>
+    <t>相似度:0.72889405</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_53942582/article/details/118556060</t>
+  </si>
+  <si>
+    <t>相似度:0.831094</t>
+  </si>
+  <si>
     <t>1190200817</t>
   </si>
   <si>
@@ -292,6 +982,48 @@
     <t>https://blog.csdn.net/lxcshax?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/117607505</t>
+  </si>
+  <si>
+    <t>相似度:0.8683169</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/118401284</t>
+  </si>
+  <si>
+    <t>相似度:0.5680285</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/117876521</t>
+  </si>
+  <si>
+    <t>相似度:0.77712625</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/117875520</t>
+  </si>
+  <si>
+    <t>相似度:0.37288463</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/117793293</t>
+  </si>
+  <si>
+    <t>相似度:0.94951534</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/117407908</t>
+  </si>
+  <si>
+    <t>相似度:0.60824686</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lxcshax/article/details/118491101</t>
+  </si>
+  <si>
+    <t>相似度:0.9353759</t>
+  </si>
+  <si>
     <t>1190200820</t>
   </si>
   <si>
@@ -301,6 +1033,42 @@
     <t>https://blog.csdn.net/liyu1190200820?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/liyu1190200820/article/details/118342988</t>
+  </si>
+  <si>
+    <t>相似度:0.9782246</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liyu1190200820/article/details/118491652</t>
+  </si>
+  <si>
+    <t>相似度:0.8934734</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liyu1190200820/article/details/118307043</t>
+  </si>
+  <si>
+    <t>相似度:0.99251395</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liyu1190200820/article/details/118157354</t>
+  </si>
+  <si>
+    <t>相似度:0.3397824</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liyu1190200820/article/details/118361429</t>
+  </si>
+  <si>
+    <t>相似度:0.96318173</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liyu1190200820/article/details/118342869</t>
+  </si>
+  <si>
+    <t>相似度:0.61090237</t>
+  </si>
+  <si>
     <t>1190200828</t>
   </si>
   <si>
@@ -310,6 +1078,42 @@
     <t>https://blog.csdn.net/weixin_48751654/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_48751654/article/details/118557599</t>
+  </si>
+  <si>
+    <t>相似度:0.8212208</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_48751654/article/details/118520276</t>
+  </si>
+  <si>
+    <t>相似度:0.62987685</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_48751654/article/details/118549529</t>
+  </si>
+  <si>
+    <t>相似度:0.8410439</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_48751654/article/details/118552989</t>
+  </si>
+  <si>
+    <t>相似度:0.83308554</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_48751654/article/details/118525220</t>
+  </si>
+  <si>
+    <t>相似度:0.68195176</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_48751654/article/details/118214846</t>
+  </si>
+  <si>
+    <t>相似度:0.3437049</t>
+  </si>
+  <si>
     <t>1190200913</t>
   </si>
   <si>
@@ -319,6 +1123,24 @@
     <t>https://blog.csdn.net/AlexaderLex</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/AlexaderLex/article/details/118559687</t>
+  </si>
+  <si>
+    <t>相似度:0.8422642</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/AlexaderLex/article/details/116478279</t>
+  </si>
+  <si>
+    <t>相似度:0.9022211</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/AlexaderLex/article/details/118229324</t>
+  </si>
+  <si>
+    <t>相似度:0.38045064</t>
+  </si>
+  <si>
     <t>1190200927</t>
   </si>
   <si>
@@ -337,6 +1159,48 @@
     <t>https://blog.csdn.net/m0_54196701?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/118146059</t>
+  </si>
+  <si>
+    <t>相似度:0.47909203</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/118346282</t>
+  </si>
+  <si>
+    <t>相似度:0.79951835</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/118528174</t>
+  </si>
+  <si>
+    <t>相似度:0.9983512</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/118545616</t>
+  </si>
+  <si>
+    <t>相似度:0.81536853</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/118500431</t>
+  </si>
+  <si>
+    <t>相似度:0.9722468</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/118499709</t>
+  </si>
+  <si>
+    <t>相似度:0.987185</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_54196701/article/details/117235728</t>
+  </si>
+  <si>
+    <t>相似度:0.3181913</t>
+  </si>
+  <si>
     <t>1190201013</t>
   </si>
   <si>
@@ -346,6 +1210,18 @@
     <t>https://blog.csdn.net/qq_45775940</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45775940/article/details/118550597</t>
+  </si>
+  <si>
+    <t>相似度:0.92849475</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45775940/article/details/118521843</t>
+  </si>
+  <si>
+    <t>相似度:0.9531453</t>
+  </si>
+  <si>
     <t>1190201014</t>
   </si>
   <si>
@@ -364,6 +1240,54 @@
     <t>https://blog.csdn.net/Gravitas</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/118461284</t>
+  </si>
+  <si>
+    <t>相似度:0.5266411</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/118228525</t>
+  </si>
+  <si>
+    <t>相似度:0.16470654</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/118242977</t>
+  </si>
+  <si>
+    <t>相似度:0.09587008</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/117957805</t>
+  </si>
+  <si>
+    <t>相似度:0.35963467</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/118523519</t>
+  </si>
+  <si>
+    <t>相似度:0.91454786</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/118445990</t>
+  </si>
+  <si>
+    <t>相似度:0.9771763</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/118437968</t>
+  </si>
+  <si>
+    <t>相似度:0.9743379</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Gravitas/article/details/117481321</t>
+  </si>
+  <si>
+    <t>相似度:0.3284553</t>
+  </si>
+  <si>
     <t>1190201022</t>
   </si>
   <si>
@@ -373,6 +1297,66 @@
     <t>https://blog.csdn.net/weixin_45830636?spm=1008.2028.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118550333</t>
+  </si>
+  <si>
+    <t>相似度:0.86041427</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118371292</t>
+  </si>
+  <si>
+    <t>相似度:0.9973379</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/117756322</t>
+  </si>
+  <si>
+    <t>相似度:0.46364608</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118549332</t>
+  </si>
+  <si>
+    <t>相似度:0.96503156</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118551330</t>
+  </si>
+  <si>
+    <t>相似度:0.57986015</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118419449</t>
+  </si>
+  <si>
+    <t>相似度:0.95007956</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118552319</t>
+  </si>
+  <si>
+    <t>相似度:0.7446329</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/118370631</t>
+  </si>
+  <si>
+    <t>相似度:0.98957604</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/117756250</t>
+  </si>
+  <si>
+    <t>相似度:0.40091527</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45830636/article/details/117755578</t>
+  </si>
+  <si>
+    <t>相似度:0.8454947</t>
+  </si>
+  <si>
     <t>1190201117</t>
   </si>
   <si>
@@ -391,6 +1375,18 @@
     <t>https://blog.csdn.net/xiaisdien?spm=1010.2135.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/xiaisdien/article/details/118558607</t>
+  </si>
+  <si>
+    <t>相似度:0.55955887</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/xiaisdien/article/details/118318060</t>
+  </si>
+  <si>
+    <t>相似度:0.310206</t>
+  </si>
+  <si>
     <t>1190201120</t>
   </si>
   <si>
@@ -400,6 +1396,36 @@
     <t>https://blog.csdn.net/CHITUZ</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/CHITUZ/article/details/118554577</t>
+  </si>
+  <si>
+    <t>相似度:0.77321887</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/CHITUZ/article/details/118552102</t>
+  </si>
+  <si>
+    <t>相似度:0.8060156</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/CHITUZ/article/details/118552500</t>
+  </si>
+  <si>
+    <t>相似度:0.9114055</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/CHITUZ/article/details/118548432</t>
+  </si>
+  <si>
+    <t>相似度:0.370995</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/CHITUZ/article/details/118161547</t>
+  </si>
+  <si>
+    <t>相似度:0.32271352</t>
+  </si>
+  <si>
     <t>1190201122</t>
   </si>
   <si>
@@ -409,6 +1435,12 @@
     <t>https://blog.csdn.net/HIT_tian?spm=1001.2100.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/HIT_tian/article/details/118557385</t>
+  </si>
+  <si>
+    <t>相似度:0.9088145</t>
+  </si>
+  <si>
     <t>1190201209</t>
   </si>
   <si>
@@ -418,6 +1450,30 @@
     <t>https://blog.csdn.net/m0_58013789</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_58013789/article/details/118530756</t>
+  </si>
+  <si>
+    <t>相似度:0.89285135</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_58013789/article/details/118529174</t>
+  </si>
+  <si>
+    <t>相似度:0.95137244</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_58013789/article/details/118400164</t>
+  </si>
+  <si>
+    <t>相似度:0.4749391</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_58013789/article/details/118559213</t>
+  </si>
+  <si>
+    <t>相似度:0.95626086</t>
+  </si>
+  <si>
     <t>1190201214</t>
   </si>
   <si>
@@ -427,6 +1483,30 @@
     <t>https://blog.csdn.net/qq_45351564?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45351564/article/details/118359218</t>
+  </si>
+  <si>
+    <t>相似度:0.3146538</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45351564/article/details/118522498</t>
+  </si>
+  <si>
+    <t>相似度:0.5194881</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45351564/article/details/118497355</t>
+  </si>
+  <si>
+    <t>相似度:0.37470582</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45351564/article/details/118528545</t>
+  </si>
+  <si>
+    <t>相似度:0.8982273</t>
+  </si>
+  <si>
     <t>1190201226</t>
   </si>
   <si>
@@ -436,6 +1516,18 @@
     <t>https://blog.csdn.net/m0_46163724?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_46163724/article/details/118530168</t>
+  </si>
+  <si>
+    <t>相似度:0.4861964</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46163724/article/details/118371742</t>
+  </si>
+  <si>
+    <t>相似度:0.31144205</t>
+  </si>
+  <si>
     <t>1190201302</t>
   </si>
   <si>
@@ -445,6 +1537,12 @@
     <t>https://blog.csdn.net/qq_45909359?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45909359/article/details/118441686</t>
+  </si>
+  <si>
+    <t>相似度:0.58764803</t>
+  </si>
+  <si>
     <t>1190201312</t>
   </si>
   <si>
@@ -454,6 +1552,42 @@
     <t>https://blog.csdn.net/qq_45809065?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45809065/article/details/118075734</t>
+  </si>
+  <si>
+    <t>相似度:0.74227613</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45809065/article/details/118558926</t>
+  </si>
+  <si>
+    <t>相似度:0.88148546</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45809065/article/details/118527118</t>
+  </si>
+  <si>
+    <t>相似度:0.5771336</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45809065/article/details/118535021</t>
+  </si>
+  <si>
+    <t>相似度:0.9399635</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45809065/article/details/118532441</t>
+  </si>
+  <si>
+    <t>相似度:0.8151357</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45809065/article/details/118371589</t>
+  </si>
+  <si>
+    <t>相似度:0.35633293</t>
+  </si>
+  <si>
     <t>1190201314</t>
   </si>
   <si>
@@ -481,6 +1615,72 @@
     <t>https://blog.csdn.net/qq_46013709</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/117201855</t>
+  </si>
+  <si>
+    <t>相似度:0.6924315</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118547144</t>
+  </si>
+  <si>
+    <t>相似度:0.9009331</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118547657</t>
+  </si>
+  <si>
+    <t>相似度:0.6183307</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/116995069</t>
+  </si>
+  <si>
+    <t>相似度:0.35333663</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118560195</t>
+  </si>
+  <si>
+    <t>相似度:0.5970867</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118464852</t>
+  </si>
+  <si>
+    <t>相似度:0.76854867</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/116995747</t>
+  </si>
+  <si>
+    <t>相似度:0.44357634</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118558056</t>
+  </si>
+  <si>
+    <t>相似度:0.5400763</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118372007</t>
+  </si>
+  <si>
+    <t>相似度:0.36354387</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118460800</t>
+  </si>
+  <si>
+    <t>相似度:0.6848551</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_46013709/article/details/118541187</t>
+  </si>
+  <si>
+    <t>相似度:0.9128974</t>
+  </si>
+  <si>
     <t>1190201421</t>
   </si>
   <si>
@@ -490,6 +1690,42 @@
     <t>https://blog.csdn.net/weixin_53506631</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_53506631/article/details/118370215</t>
+  </si>
+  <si>
+    <t>相似度:0.82522154</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_53506631/article/details/118197790</t>
+  </si>
+  <si>
+    <t>相似度:0.93676615</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_53506631/article/details/118153948</t>
+  </si>
+  <si>
+    <t>相似度:0.34336483</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_53506631/article/details/118556729</t>
+  </si>
+  <si>
+    <t>相似度:0.8524194</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_53506631/article/details/117985928</t>
+  </si>
+  <si>
+    <t>相似度:0.9926316</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_53506631/article/details/118490768</t>
+  </si>
+  <si>
+    <t>相似度:0.6465923</t>
+  </si>
+  <si>
     <t>1190201427</t>
   </si>
   <si>
@@ -499,6 +1735,42 @@
     <t>https://blog.csdn.net/m0_46991095?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_46991095/article/details/118498096</t>
+  </si>
+  <si>
+    <t>相似度:0.49411604</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46991095/article/details/118369107</t>
+  </si>
+  <si>
+    <t>相似度:0.3490123</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46991095/article/details/118439815</t>
+  </si>
+  <si>
+    <t>相似度:0.38477308</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46991095/article/details/118526769</t>
+  </si>
+  <si>
+    <t>相似度:0.82580864</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46991095/article/details/118422794</t>
+  </si>
+  <si>
+    <t>相似度:0.51272726</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46991095/article/details/118469057</t>
+  </si>
+  <si>
+    <t>相似度:0.7901838</t>
+  </si>
+  <si>
     <t>1190201428</t>
   </si>
   <si>
@@ -508,6 +1780,36 @@
     <t>https://blog.csdn.net/ag_killer?spm=1001.2014.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/ag_killer/article/details/118445425</t>
+  </si>
+  <si>
+    <t>相似度:0.88194895</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ag_killer/article/details/118532562</t>
+  </si>
+  <si>
+    <t>相似度:0.42353067</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ag_killer/article/details/118422030</t>
+  </si>
+  <si>
+    <t>相似度:0.31867325</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ag_killer/article/details/118500270</t>
+  </si>
+  <si>
+    <t>相似度:0.8570129</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ag_killer/article/details/118469315</t>
+  </si>
+  <si>
+    <t>相似度:0.748081</t>
+  </si>
+  <si>
     <t>1190201507</t>
   </si>
   <si>
@@ -535,6 +1837,54 @@
     <t>https://blog.csdn.net/Keiun</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118187408</t>
+  </si>
+  <si>
+    <t>相似度:0.3125394</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118495607</t>
+  </si>
+  <si>
+    <t>相似度:0.46533856</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118497876</t>
+  </si>
+  <si>
+    <t>相似度:0.65938306</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/116453603</t>
+  </si>
+  <si>
+    <t>相似度:0.7548911</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118519513</t>
+  </si>
+  <si>
+    <t>相似度:0.36297315</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118163416</t>
+  </si>
+  <si>
+    <t>相似度:0.5563074</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118521914</t>
+  </si>
+  <si>
+    <t>相似度:0.9133248</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Keiun/article/details/118186772</t>
+  </si>
+  <si>
+    <t>相似度:0.31329438</t>
+  </si>
+  <si>
     <t>1190201526</t>
   </si>
   <si>
@@ -553,6 +1903,48 @@
     <t>https://blog.csdn.net/huiyiiiiii?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118150378</t>
+  </si>
+  <si>
+    <t>相似度:0.97861135</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118501547</t>
+  </si>
+  <si>
+    <t>相似度:0.98891</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118147429</t>
+  </si>
+  <si>
+    <t>相似度:0.9930033</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118440389</t>
+  </si>
+  <si>
+    <t>相似度:0.8482881</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118177142</t>
+  </si>
+  <si>
+    <t>相似度:0.3159202</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118529647</t>
+  </si>
+  <si>
+    <t>相似度:0.105202794</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/huiyiiiiii/article/details/118526976</t>
+  </si>
+  <si>
+    <t>相似度:0.9315014</t>
+  </si>
+  <si>
     <t>1190201627</t>
   </si>
   <si>
@@ -571,6 +1963,42 @@
     <t>https://blog.csdn.net/weixin_47359411?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_47359411/article/details/118523511</t>
+  </si>
+  <si>
+    <t>相似度:0.8072206</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_47359411/article/details/118313869</t>
+  </si>
+  <si>
+    <t>相似度:0.922084</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_47359411/article/details/118544600</t>
+  </si>
+  <si>
+    <t>相似度:0.76822686</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_47359411/article/details/118185092</t>
+  </si>
+  <si>
+    <t>相似度:0.7152069</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_47359411/article/details/118186019</t>
+  </si>
+  <si>
+    <t>相似度:0.31910014</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_47359411/article/details/118316004</t>
+  </si>
+  <si>
+    <t>相似度:0.8236544</t>
+  </si>
+  <si>
     <t>1190201702</t>
   </si>
   <si>
@@ -580,6 +2008,42 @@
     <t>https://blog.csdn.net/weixin_49729661/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_49729661/article/details/118332916</t>
+  </si>
+  <si>
+    <t>相似度:0.3187484</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_49729661/article/details/118530631</t>
+  </si>
+  <si>
+    <t>相似度:0.81338453</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_49729661/article/details/118497640</t>
+  </si>
+  <si>
+    <t>相似度:0.6412617</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_49729661/article/details/118541306</t>
+  </si>
+  <si>
+    <t>相似度:0.9007373</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_49729661/article/details/118558445</t>
+  </si>
+  <si>
+    <t>相似度:0.6046721</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_49729661/article/details/118502245</t>
+  </si>
+  <si>
+    <t>相似度:0.7969664</t>
+  </si>
+  <si>
     <t>1190201704</t>
   </si>
   <si>
@@ -598,6 +2062,42 @@
     <t>https://blog.csdn.net/MOB2333?spm=1011.2124.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/MOB2333/article/details/118554160</t>
+  </si>
+  <si>
+    <t>相似度:0.93661326</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/MOB2333/article/details/118369441</t>
+  </si>
+  <si>
+    <t>相似度:0.5168566</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/MOB2333/article/details/118554697</t>
+  </si>
+  <si>
+    <t>相似度:0.83101356</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/MOB2333/article/details/118554465</t>
+  </si>
+  <si>
+    <t>相似度:0.9099336</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/MOB2333/article/details/118553740</t>
+  </si>
+  <si>
+    <t>相似度:0.77418005</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/MOB2333/article/details/118554778</t>
+  </si>
+  <si>
+    <t>相似度:0.7828465</t>
+  </si>
+  <si>
     <t>1190201712</t>
   </si>
   <si>
@@ -607,6 +2107,30 @@
     <t>https://blog.csdn.net/GrHand?spm=1011.2124.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/GrHand/article/details/118555977</t>
+  </si>
+  <si>
+    <t>相似度:0.4310979</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/GrHand/article/details/118339433</t>
+  </si>
+  <si>
+    <t>相似度:0.32526675</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/GrHand/article/details/117392682</t>
+  </si>
+  <si>
+    <t>相似度:0.83400613</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/GrHand/article/details/118546741</t>
+  </si>
+  <si>
+    <t>相似度:0.9637975</t>
+  </si>
+  <si>
     <t>1190201722</t>
   </si>
   <si>
@@ -616,6 +2140,24 @@
     <t>https://blog.csdn.net/acsssssss</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/ACSSSSSSS/article/details/118346136</t>
+  </si>
+  <si>
+    <t>相似度:0.33737546</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ACSSSSSSS/article/details/118360700</t>
+  </si>
+  <si>
+    <t>相似度:0.88883257</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ACSSSSSSS/article/details/118355302</t>
+  </si>
+  <si>
+    <t>相似度:0.5944046</t>
+  </si>
+  <si>
     <t>1190201815</t>
   </si>
   <si>
@@ -625,6 +2167,42 @@
     <t>https://blog.csdn.net/rerisingstar</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/rerisingstar/article/details/118560207</t>
+  </si>
+  <si>
+    <t>相似度:0.6941225</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/rerisingstar/article/details/118371642</t>
+  </si>
+  <si>
+    <t>相似度:0.3179944</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/rerisingstar/article/details/118555392</t>
+  </si>
+  <si>
+    <t>相似度:0.46029073</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/rerisingstar/article/details/118556071</t>
+  </si>
+  <si>
+    <t>相似度:0.9368547</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/rerisingstar/article/details/118560137</t>
+  </si>
+  <si>
+    <t>相似度:0.63379854</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/rerisingstar/article/details/118520785</t>
+  </si>
+  <si>
+    <t>相似度:0.7400264</t>
+  </si>
+  <si>
     <t>1190201820</t>
   </si>
   <si>
@@ -634,6 +2212,48 @@
     <t>https://blog.csdn.net/qq_40450896</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118560300</t>
+  </si>
+  <si>
+    <t>相似度:0.9755912</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118560261</t>
+  </si>
+  <si>
+    <t>相似度:0.9869694</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118560128</t>
+  </si>
+  <si>
+    <t>相似度:0.653844</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118559963</t>
+  </si>
+  <si>
+    <t>相似度:0.64104664</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118560307</t>
+  </si>
+  <si>
+    <t>相似度:0.5375286</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118560289</t>
+  </si>
+  <si>
+    <t>相似度:0.93530065</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40450896/article/details/118372027</t>
+  </si>
+  <si>
+    <t>相似度:0.3020752</t>
+  </si>
+  <si>
     <t>1190201902</t>
   </si>
   <si>
@@ -643,6 +2263,18 @@
     <t>https://blog.csdn.net/OKClu?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/OKClu/article/details/118345972</t>
+  </si>
+  <si>
+    <t>相似度:0.30050406</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/OKClu/article/details/118529396</t>
+  </si>
+  <si>
+    <t>相似度:0.749495</t>
+  </si>
+  <si>
     <t>1190201904</t>
   </si>
   <si>
@@ -661,6 +2293,18 @@
     <t>https://blog.csdn.net/zhuzyibooooo/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/zhuzyibooooo/article/details/118230353</t>
+  </si>
+  <si>
+    <t>相似度:0.30889016</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zhuzyibooooo/article/details/118527726</t>
+  </si>
+  <si>
+    <t>相似度:0.631578</t>
+  </si>
+  <si>
     <t>1190202008</t>
   </si>
   <si>
@@ -670,6 +2314,36 @@
     <t>https://blog.csdn.net/m0_46259572?spm=1011.2124.3001.4477</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/m0_46259572/article/details/118373367</t>
+  </si>
+  <si>
+    <t>相似度:0.31214255</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46259572/article/details/118556801</t>
+  </si>
+  <si>
+    <t>相似度:0.8308126</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46259572/article/details/118534798</t>
+  </si>
+  <si>
+    <t>相似度:0.72306687</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46259572/article/details/118559562</t>
+  </si>
+  <si>
+    <t>相似度:0.7708087</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_46259572/article/details/118527509</t>
+  </si>
+  <si>
+    <t>相似度:0.83773047</t>
+  </si>
+  <si>
     <t>1190202013</t>
   </si>
   <si>
@@ -679,6 +2353,60 @@
     <t>https://blog.csdn.net/Annabel6</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118557342</t>
+  </si>
+  <si>
+    <t>相似度:0.43624276</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118558705</t>
+  </si>
+  <si>
+    <t>相似度:0.9062703</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118371849</t>
+  </si>
+  <si>
+    <t>相似度:0.89841914</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118527180</t>
+  </si>
+  <si>
+    <t>相似度:0.6552469</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118559888</t>
+  </si>
+  <si>
+    <t>相似度:0.8264197</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118559464</t>
+  </si>
+  <si>
+    <t>相似度:0.8396829</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118532689</t>
+  </si>
+  <si>
+    <t>相似度:0.50454277</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118532652</t>
+  </si>
+  <si>
+    <t>相似度:0.7990508</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Annabel6/article/details/118556580</t>
+  </si>
+  <si>
+    <t>相似度:0.46361277</t>
+  </si>
+  <si>
     <t>1190202026</t>
   </si>
   <si>
@@ -688,6 +2416,42 @@
     <t>https://blog.csdn.net/piapia12138?spm=1010.2135.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/piapia12138/article/details/118346092</t>
+  </si>
+  <si>
+    <t>相似度:0.32020554</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/piapia12138/article/details/118523612</t>
+  </si>
+  <si>
+    <t>相似度:0.83733773</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/piapia12138/article/details/117200779</t>
+  </si>
+  <si>
+    <t>相似度:0.81157786</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/piapia12138/article/details/118547995</t>
+  </si>
+  <si>
+    <t>相似度:0.87987113</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/piapia12138/article/details/118519067</t>
+  </si>
+  <si>
+    <t>相似度:0.75906134</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/piapia12138/article/details/118556814</t>
+  </si>
+  <si>
+    <t>相似度:0.6999147</t>
+  </si>
+  <si>
     <t>1190202107</t>
   </si>
   <si>
@@ -697,6 +2461,42 @@
     <t>https://blog.csdn.net/weixin_46219578</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_46219578/article/details/117462868</t>
+  </si>
+  <si>
+    <t>相似度:0.96345496</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46219578/article/details/118404386</t>
+  </si>
+  <si>
+    <t>相似度:0.990147</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46219578/article/details/118551985</t>
+  </si>
+  <si>
+    <t>相似度:0.9716299</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46219578/article/details/118547718</t>
+  </si>
+  <si>
+    <t>相似度:0.8908705</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46219578/article/details/118390098</t>
+  </si>
+  <si>
+    <t>相似度:0.35173333</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46219578/article/details/118394159</t>
+  </si>
+  <si>
+    <t>相似度:0.9532089</t>
+  </si>
+  <si>
     <t>1190202111</t>
   </si>
   <si>
@@ -706,6 +2506,42 @@
     <t>https://blog.csdn.net/Skyrious/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Skyrious/article/details/118526548</t>
+  </si>
+  <si>
+    <t>相似度:0.6834083</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Skyrious/article/details/118527540</t>
+  </si>
+  <si>
+    <t>相似度:0.9796112</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Skyrious/article/details/118252709</t>
+  </si>
+  <si>
+    <t>相似度:0.3137083</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Skyrious/article/details/118522479</t>
+  </si>
+  <si>
+    <t>相似度:0.9952242</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Skyrious/article/details/118499830</t>
+  </si>
+  <si>
+    <t>相似度:0.9599606</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Skyrious/article/details/118501342</t>
+  </si>
+  <si>
+    <t>相似度:0.78806573</t>
+  </si>
+  <si>
     <t>1190202113</t>
   </si>
   <si>
@@ -715,6 +2551,42 @@
     <t>https://blog.csdn.net/weixin_45607713/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_45607713/article/details/118195609</t>
+  </si>
+  <si>
+    <t>相似度:0.36369202</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45607713/article/details/118449172</t>
+  </si>
+  <si>
+    <t>相似度:0.4501438</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45607713/article/details/118503470</t>
+  </si>
+  <si>
+    <t>相似度:0.62561744</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45607713/article/details/118512834</t>
+  </si>
+  <si>
+    <t>相似度:0.9477468</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45607713/article/details/118548975</t>
+  </si>
+  <si>
+    <t>相似度:0.9602593</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45607713/article/details/118524412</t>
+  </si>
+  <si>
+    <t>相似度:0.87293494</t>
+  </si>
+  <si>
     <t>1190202117</t>
   </si>
   <si>
@@ -724,6 +2596,12 @@
     <t>https://blog.csdn.net/Chikakawayi?spm=1010.2135.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Chikakawayi/article/details/118543840</t>
+  </si>
+  <si>
+    <t>相似度:0.6245015</t>
+  </si>
+  <si>
     <t>1190202126</t>
   </si>
   <si>
@@ -733,6 +2611,48 @@
     <t>https://blog.csdn.net/weixin_45653722</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/118277936</t>
+  </si>
+  <si>
+    <t>相似度:0.7880328</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/118276045</t>
+  </si>
+  <si>
+    <t>相似度:0.32842883</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/118277640</t>
+  </si>
+  <si>
+    <t>相似度:0.5276876</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/117855019</t>
+  </si>
+  <si>
+    <t>相似度:0.7154997</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/117855639</t>
+  </si>
+  <si>
+    <t>相似度:0.6848217</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/117306500</t>
+  </si>
+  <si>
+    <t>相似度:0.95537853</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45653722/article/details/118395749</t>
+  </si>
+  <si>
+    <t>相似度:0.89282906</t>
+  </si>
+  <si>
     <t>1190202207</t>
   </si>
   <si>
@@ -742,6 +2662,60 @@
     <t>https://blog.csdn.net/www01000134?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118327058</t>
+  </si>
+  <si>
+    <t>相似度:0.5267445</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118496245</t>
+  </si>
+  <si>
+    <t>相似度:0.6121983</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/117884794</t>
+  </si>
+  <si>
+    <t>相似度:0.81008244</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118550203</t>
+  </si>
+  <si>
+    <t>相似度:0.6063491</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118465074</t>
+  </si>
+  <si>
+    <t>相似度:0.14734581</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118481413</t>
+  </si>
+  <si>
+    <t>相似度:0.09168943</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118523075</t>
+  </si>
+  <si>
+    <t>相似度:0.8640806</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118467428</t>
+  </si>
+  <si>
+    <t>相似度:0.13875806</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/www01000134/article/details/118530021</t>
+  </si>
+  <si>
+    <t>相似度:0.83358616</t>
+  </si>
+  <si>
     <t>1190202210</t>
   </si>
   <si>
@@ -751,6 +2725,42 @@
     <t>https://blog.csdn.net/weixin_45608547/</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_45608547/article/details/118358546</t>
+  </si>
+  <si>
+    <t>相似度:0.3098895</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45608547/article/details/118501334</t>
+  </si>
+  <si>
+    <t>相似度:0.8789348</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45608547/article/details/116294438</t>
+  </si>
+  <si>
+    <t>相似度:0.82905525</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45608547/article/details/118522335</t>
+  </si>
+  <si>
+    <t>相似度:0.9261932</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45608547/article/details/118000526</t>
+  </si>
+  <si>
+    <t>相似度:0.8488316</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45608547/article/details/118398777</t>
+  </si>
+  <si>
+    <t>相似度:0.76856744</t>
+  </si>
+  <si>
     <t>1190202215</t>
   </si>
   <si>
@@ -760,6 +2770,54 @@
     <t>https://blog.csdn.net/Baigker?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Baigker/article/details/118445979</t>
+  </si>
+  <si>
+    <t>相似度:0.72592455</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/118228536</t>
+  </si>
+  <si>
+    <t>相似度:0.33217326</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/118458786</t>
+  </si>
+  <si>
+    <t>相似度:0.8424153</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/116465667</t>
+  </si>
+  <si>
+    <t>相似度:0.63787556</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/118380241</t>
+  </si>
+  <si>
+    <t>相似度:0.9659727</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/117716940</t>
+  </si>
+  <si>
+    <t>相似度:0.62451696</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/118404212</t>
+  </si>
+  <si>
+    <t>相似度:0.8318987</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Baigker/article/details/118353220</t>
+  </si>
+  <si>
+    <t>相似度:0.56224704</t>
+  </si>
+  <si>
     <t>1190202224</t>
   </si>
   <si>
@@ -769,6 +2827,24 @@
     <t>https://blog.csdn.net/tsien88?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/tsien88/article/details/118537078</t>
+  </si>
+  <si>
+    <t>相似度:0.49049664</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/tsien88/article/details/118555286</t>
+  </si>
+  <si>
+    <t>相似度:0.832549</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/tsien88/article/details/118537264</t>
+  </si>
+  <si>
+    <t>相似度:0.788882</t>
+  </si>
+  <si>
     <t>1190202315</t>
   </si>
   <si>
@@ -778,6 +2854,24 @@
     <t>https://blog.csdn.net/royalcatnap?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/royalcatnap/article/details/118557518</t>
+  </si>
+  <si>
+    <t>相似度:0.79686904</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/royalcatnap/article/details/116570220</t>
+  </si>
+  <si>
+    <t>相似度:0.23481685</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/royalcatnap/article/details/118559902</t>
+  </si>
+  <si>
+    <t>相似度:0.71900654</t>
+  </si>
+  <si>
     <t>1190202318</t>
   </si>
   <si>
@@ -787,6 +2881,42 @@
     <t>https://blog.csdn.net/weixin_46000396?spm=1001.2014.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_46000396/article/details/118526483</t>
+  </si>
+  <si>
+    <t>相似度:0.9216438</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46000396/article/details/118302023</t>
+  </si>
+  <si>
+    <t>相似度:0.32611367</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46000396/article/details/118164247</t>
+  </si>
+  <si>
+    <t>相似度:0.62144727</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46000396/article/details/118463077</t>
+  </si>
+  <si>
+    <t>相似度:0.8712721</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46000396/article/details/118366906</t>
+  </si>
+  <si>
+    <t>相似度:0.9237402</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46000396/article/details/118417185</t>
+  </si>
+  <si>
+    <t>相似度:0.8403147</t>
+  </si>
+  <si>
     <t>1190202322</t>
   </si>
   <si>
@@ -796,6 +2926,48 @@
     <t>https://blog.csdn.net/buckbarnes?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/118556012</t>
+  </si>
+  <si>
+    <t>相似度:0.7207147</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/118547420</t>
+  </si>
+  <si>
+    <t>相似度:0.9836982</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/117931287</t>
+  </si>
+  <si>
+    <t>相似度:0.68799657</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/118499046</t>
+  </si>
+  <si>
+    <t>相似度:0.88205177</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/118421705</t>
+  </si>
+  <si>
+    <t>相似度:0.38448656</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/118341306</t>
+  </si>
+  <si>
+    <t>相似度:0.77315444</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/buckbarnes/article/details/118550787</t>
+  </si>
+  <si>
+    <t>相似度:0.84202164</t>
+  </si>
+  <si>
     <t>1190202328</t>
   </si>
   <si>
@@ -805,6 +2977,24 @@
     <t>https://blog.csdn.net/Louis210</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Louis210/article/details/116278734</t>
+  </si>
+  <si>
+    <t>相似度:0.6224285</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Louis210/article/details/118071148</t>
+  </si>
+  <si>
+    <t>相似度:0.3368891</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Louis210/article/details/117415546</t>
+  </si>
+  <si>
+    <t>相似度:0.97942096</t>
+  </si>
+  <si>
     <t>1190202402</t>
   </si>
   <si>
@@ -814,6 +3004,42 @@
     <t>https://blog.csdn.net/qwertjkll?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qwertjkll/article/details/118557253</t>
+  </si>
+  <si>
+    <t>相似度:0.8745154</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qwertjkll/article/details/118558306</t>
+  </si>
+  <si>
+    <t>相似度:0.74344176</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qwertjkll/article/details/118371835</t>
+  </si>
+  <si>
+    <t>相似度:0.3758241</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qwertjkll/article/details/118524927</t>
+  </si>
+  <si>
+    <t>相似度:0.5975176</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qwertjkll/article/details/118547320</t>
+  </si>
+  <si>
+    <t>相似度:0.5797155</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qwertjkll/article/details/118559409</t>
+  </si>
+  <si>
+    <t>相似度:0.6956927</t>
+  </si>
+  <si>
     <t>1190202408</t>
   </si>
   <si>
@@ -823,6 +3049,48 @@
     <t>https://blog.csdn.net/a1112387?spm=1010.2135.3001.5421</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/a1112387/article/details/118333231</t>
+  </si>
+  <si>
+    <t>相似度:0.8722497</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a1112387/article/details/118557310</t>
+  </si>
+  <si>
+    <t>相似度:0.9935552</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a1112387/article/details/118076770</t>
+  </si>
+  <si>
+    <t>相似度:0.82506007</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a1112387/article/details/118162286</t>
+  </si>
+  <si>
+    <t>相似度:0.9442783</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a1112387/article/details/118366297</t>
+  </si>
+  <si>
+    <t>相似度:0.33593163</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a1112387/article/details/118444315</t>
+  </si>
+  <si>
+    <t>相似度:0.9339936</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a1112387/article/details/117928825</t>
+  </si>
+  <si>
+    <t>相似度:0.21154734</t>
+  </si>
+  <si>
     <t>1190202414</t>
   </si>
   <si>
@@ -838,6 +3106,42 @@
     <t>https://blog.csdn.net/weixin_45577864?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_45577864/article/details/118520924</t>
+  </si>
+  <si>
+    <t>相似度:0.9727682</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45577864/article/details/118525994</t>
+  </si>
+  <si>
+    <t>相似度:0.9554226</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45577864/article/details/118523888</t>
+  </si>
+  <si>
+    <t>相似度:0.9635181</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45577864/article/details/118524988</t>
+  </si>
+  <si>
+    <t>相似度:0.7535299</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45577864/article/details/118360448</t>
+  </si>
+  <si>
+    <t>相似度:0.91159636</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45577864/article/details/118197347</t>
+  </si>
+  <si>
+    <t>相似度:0.34617117</t>
+  </si>
+  <si>
     <t>1190300321</t>
   </si>
   <si>
@@ -847,6 +3151,66 @@
     <t>https://blog.csdn.net/qq_45688633?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118096581</t>
+  </si>
+  <si>
+    <t>相似度:0.3365354</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/116465924</t>
+  </si>
+  <si>
+    <t>相似度:0.40728596</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/117226768</t>
+  </si>
+  <si>
+    <t>相似度:0.5873048</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/116503617</t>
+  </si>
+  <si>
+    <t>相似度:0.57754403</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118498182</t>
+  </si>
+  <si>
+    <t>相似度:0.9894951</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118279492</t>
+  </si>
+  <si>
+    <t>相似度:0.21939434</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118361597</t>
+  </si>
+  <si>
+    <t>相似度:0.98414654</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118312088</t>
+  </si>
+  <si>
+    <t>相似度:0.37392902</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118497921</t>
+  </si>
+  <si>
+    <t>相似度:0.93691623</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_45688633/article/details/118496500</t>
+  </si>
+  <si>
+    <t>相似度:0.9407037</t>
+  </si>
+  <si>
     <t>1190301610</t>
   </si>
   <si>
@@ -856,6 +3220,42 @@
     <t>https://blog.csdn.net/kekoxl?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/kekoxl/article/details/117324421</t>
+  </si>
+  <si>
+    <t>相似度:0.3261212</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kekoxl/article/details/117753069</t>
+  </si>
+  <si>
+    <t>相似度:0.60536546</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kekoxl/article/details/118356604</t>
+  </si>
+  <si>
+    <t>相似度:0.99970037</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kekoxl/article/details/117534289</t>
+  </si>
+  <si>
+    <t>相似度:0.9991722</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kekoxl/article/details/118356816</t>
+  </si>
+  <si>
+    <t>相似度:0.8020751</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kekoxl/article/details/118189981</t>
+  </si>
+  <si>
+    <t>相似度:0.6590693</t>
+  </si>
+  <si>
     <t>1190301804</t>
   </si>
   <si>
@@ -865,6 +3265,177 @@
     <t>https://blog.csdn.net/Pin_BOY?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118519672</t>
+  </si>
+  <si>
+    <t>相似度:0.7314613</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753645</t>
+  </si>
+  <si>
+    <t>相似度:0.9928555</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118489657</t>
+  </si>
+  <si>
+    <t>相似度:0.9779105</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118489712</t>
+  </si>
+  <si>
+    <t>相似度:0.655805</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118519609</t>
+  </si>
+  <si>
+    <t>相似度:0.65927005</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118519655</t>
+  </si>
+  <si>
+    <t>相似度:0.6694297</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753666</t>
+  </si>
+  <si>
+    <t>相似度:0.9075708</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753605</t>
+  </si>
+  <si>
+    <t>相似度:0.89488184</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118489623</t>
+  </si>
+  <si>
+    <t>相似度:0.9431301</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118519632</t>
+  </si>
+  <si>
+    <t>相似度:0.7140455</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117607434</t>
+  </si>
+  <si>
+    <t>相似度:0.95202404</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753615</t>
+  </si>
+  <si>
+    <t>相似度:0.75135523</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117620173</t>
+  </si>
+  <si>
+    <t>相似度:0.9038378</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118519646</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/116358201</t>
+  </si>
+  <si>
+    <t>相似度:0.5013931</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753483</t>
+  </si>
+  <si>
+    <t>相似度:0.9729004</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118489743</t>
+  </si>
+  <si>
+    <t>相似度:0.6978806</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118490034</t>
+  </si>
+  <si>
+    <t>相似度:0.67224896</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118489767</t>
+  </si>
+  <si>
+    <t>相似度:0.80230105</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753384</t>
+  </si>
+  <si>
+    <t>相似度:0.9848319</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753658</t>
+  </si>
+  <si>
+    <t>相似度:0.9960081</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753582</t>
+  </si>
+  <si>
+    <t>相似度:0.98384213</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117753678</t>
+  </si>
+  <si>
+    <t>相似度:0.8086889</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/116407502</t>
+  </si>
+  <si>
+    <t>相似度:0.39514843</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118519566</t>
+  </si>
+  <si>
+    <t>相似度:0.7703444</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/118489807</t>
+  </si>
+  <si>
+    <t>相似度:0.7008623</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/116377457</t>
+  </si>
+  <si>
+    <t>相似度:0.6668906</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/117999749</t>
+  </si>
+  <si>
+    <t>相似度:0.39073715</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Pin_BOY/article/details/116377707</t>
+  </si>
+  <si>
+    <t>相似度:0.8727537</t>
+  </si>
+  <si>
     <t>1190303503</t>
   </si>
   <si>
@@ -874,6 +3445,18 @@
     <t>https://blog.csdn.net/weixin_54572146?spm=1000.2115.3001.5343</t>
   </si>
   <si>
+    <t>https://blog.csdn.net/weixin_54572146/article/details/118161254</t>
+  </si>
+  <si>
+    <t>相似度:0.2957117</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_54572146/article/details/118463937</t>
+  </si>
+  <si>
+    <t>相似度:0.79903275</t>
+  </si>
+  <si>
     <t>1190401018</t>
   </si>
   <si>
@@ -881,6 +3464,60 @@
   </si>
   <si>
     <t>https://blog.csdn.net/m0_51250400?spm=1001.2014.3001.5343</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/117231280</t>
+  </si>
+  <si>
+    <t>相似度:0.89666516</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/118405807</t>
+  </si>
+  <si>
+    <t>相似度:0.88873565</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/117919941</t>
+  </si>
+  <si>
+    <t>相似度:0.8238236</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/118280816</t>
+  </si>
+  <si>
+    <t>相似度:0.9035624</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/118273959</t>
+  </si>
+  <si>
+    <t>相似度:0.9493965</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/118026581</t>
+  </si>
+  <si>
+    <t>相似度:0.31348762</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/117047350</t>
+  </si>
+  <si>
+    <t>相似度:0.5647639</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/117431346</t>
+  </si>
+  <si>
+    <t>相似度:0.76813775</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/m0_51250400/article/details/117223689</t>
+  </si>
+  <si>
+    <t>相似度:0.38999012</t>
   </si>
   <si>
     <t>1190600206</t>
@@ -896,7 +3533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +3547,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -936,9 +3580,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1234,13 +3879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:BJ97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +3902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +3930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1312,229 +3957,757 @@
       <c r="D5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" t="s">
+        <v>135</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N19" t="s">
+        <v>231</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1543,994 +4716,2734 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J23" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" t="s">
+        <v>266</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s">
+        <v>287</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N26" t="s">
+        <v>289</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J27" t="s">
+        <v>300</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>321</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" t="s">
+        <v>327</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N30" t="s">
+        <v>331</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P30" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H31" t="s">
+        <v>342</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J31" t="s">
+        <v>344</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="P31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>351</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>353</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" t="s">
+        <v>355</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H32" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J32" t="s">
+        <v>359</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L32" t="s">
+        <v>361</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N32" t="s">
+        <v>363</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F33" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>379</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>380</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H35" t="s">
+        <v>384</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J35" t="s">
+        <v>386</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L35" t="s">
+        <v>388</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N35" t="s">
+        <v>390</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P35" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" t="s">
+        <v>399</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>402</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>403</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>406</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>407</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N38" t="s">
+        <v>417</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P38" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R38" t="s">
+        <v>421</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>424</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>425</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>426</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F39" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H39" t="s">
+        <v>430</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L39" t="s">
+        <v>434</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P39" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="R39" t="s">
+        <v>440</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="T39" t="s">
+        <v>442</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="X39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>447</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>448</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>449</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>450</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>452</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>457</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>458</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>459</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F42" t="s">
+        <v>461</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H42" t="s">
+        <v>463</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J42" t="s">
+        <v>465</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>475</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>476</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>477</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H44" t="s">
+        <v>481</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L44" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>486</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>488</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>497</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>499</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>505</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>506</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>509</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>145</v>
+        <v>511</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F48" t="s">
+        <v>513</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L48" t="s">
+        <v>519</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N48" t="s">
+        <v>521</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>524</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>525</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>526</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>528</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>529</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>531</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>532</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F51" t="s">
+        <v>534</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H51" t="s">
+        <v>536</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J51" t="s">
+        <v>538</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P51" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="X51" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>555</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>556</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F52" t="s">
+        <v>559</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H52" t="s">
+        <v>561</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="L52" t="s">
+        <v>565</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N52" t="s">
+        <v>567</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="P52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>570</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>571</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="L53" t="s">
+        <v>580</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>585</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>586</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>163</v>
+        <v>587</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F54" t="s">
+        <v>589</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L54" t="s">
+        <v>595</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="N54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>598</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>599</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>600</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>601</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>602</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>603</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>604</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>605</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>172</v>
+        <v>606</v>
       </c>
       <c r="D57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J57" t="s">
+        <v>612</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="L57" t="s">
+        <v>614</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="R57" t="s">
+        <v>620</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>623</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>624</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>175</v>
+        <v>625</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>626</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>627</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>178</v>
+        <v>628</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F59" t="s">
+        <v>630</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H59" t="s">
+        <v>632</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J59" t="s">
+        <v>634</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="L59" t="s">
+        <v>636</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="R59" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>643</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>644</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>645</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>646</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>647</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>184</v>
+        <v>648</v>
       </c>
       <c r="D61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F61" t="s">
+        <v>650</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H61" t="s">
+        <v>652</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J61" t="s">
+        <v>654</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L61" t="s">
+        <v>656</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="P61" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>661</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>662</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>187</v>
+        <v>663</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H62" t="s">
+        <v>667</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J62" t="s">
+        <v>669</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="L62" t="s">
+        <v>671</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="N62" t="s">
+        <v>673</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="P62" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>676</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>677</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
+        <v>678</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>679</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>680</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>193</v>
+        <v>681</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F64" t="s">
+        <v>683</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J64" t="s">
+        <v>687</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="L64" t="s">
+        <v>689</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="N64" t="s">
+        <v>691</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="P64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>694</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>695</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>196</v>
+        <v>696</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J65" t="s">
+        <v>702</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="L65" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>705</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>706</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>707</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H66" t="s">
+        <v>711</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>714</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>715</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>202</v>
+        <v>716</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F67" t="s">
+        <v>718</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="L67" t="s">
+        <v>724</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="N67" t="s">
+        <v>726</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="P67" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>729</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>730</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>731</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F68" t="s">
+        <v>733</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H68" t="s">
+        <v>735</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="J68" t="s">
+        <v>737</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="L68" t="s">
+        <v>739</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="P68" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>746</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>747</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>208</v>
+        <v>748</v>
       </c>
       <c r="D69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H69" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>753</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>754</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>211</v>
+        <v>755</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>756</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>757</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>214</v>
+        <v>758</v>
       </c>
       <c r="D71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="H71" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>763</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>764</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>217</v>
+        <v>765</v>
       </c>
       <c r="D72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H72" t="s">
+        <v>769</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="J72" t="s">
+        <v>771</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="L72" t="s">
+        <v>773</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="N72" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>776</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>777</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>220</v>
+        <v>778</v>
       </c>
       <c r="D73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H73" t="s">
+        <v>782</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="J73" t="s">
+        <v>784</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="L73" t="s">
+        <v>786</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="N73" t="s">
+        <v>788</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="P73" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="T73" t="s">
+        <v>794</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>797</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>798</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>223</v>
+        <v>799</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H74" t="s">
+        <v>803</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="J74" t="s">
+        <v>805</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="L74" t="s">
+        <v>807</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="N74" t="s">
+        <v>809</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="P74" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>812</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>813</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>226</v>
+        <v>814</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F75" t="s">
+        <v>816</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H75" t="s">
+        <v>818</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="J75" t="s">
+        <v>820</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="L75" t="s">
+        <v>822</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="P75" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>827</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>828</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>229</v>
+        <v>829</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F76" t="s">
+        <v>831</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H76" t="s">
+        <v>833</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="L76" t="s">
+        <v>837</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="N76" t="s">
+        <v>839</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="P76" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>842</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>843</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>232</v>
+        <v>844</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="J77" t="s">
+        <v>850</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L77" t="s">
+        <v>852</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="N77" t="s">
+        <v>854</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="P77" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>857</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>858</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>235</v>
+        <v>859</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F78" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>862</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>863</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>238</v>
+        <v>864</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F79" t="s">
+        <v>866</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="L79" t="s">
+        <v>872</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="N79" t="s">
+        <v>874</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="P79" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="R79" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>879</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>880</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>241</v>
+        <v>881</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H80" t="s">
+        <v>885</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="J80" t="s">
+        <v>887</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="L80" t="s">
+        <v>889</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="R80" t="s">
+        <v>895</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="V80" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:62">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>900</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>901</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>244</v>
+        <v>902</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="H81" t="s">
+        <v>906</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="J81" t="s">
+        <v>908</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="L81" t="s">
+        <v>910</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="N81" t="s">
+        <v>912</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="P81" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:62">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>915</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>916</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>247</v>
+        <v>917</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F82" t="s">
+        <v>919</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="J82" t="s">
+        <v>923</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="L82" t="s">
+        <v>925</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="N82" t="s">
+        <v>927</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="P82" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="R82" t="s">
+        <v>931</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="83" spans="1:62">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>934</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>935</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>250</v>
+        <v>936</v>
       </c>
       <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="H83" t="s">
+        <v>940</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J83" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="84" spans="1:62">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>943</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>944</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>253</v>
+        <v>945</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F84" t="s">
+        <v>947</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="J84" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="85" spans="1:62">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>952</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>953</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>256</v>
+        <v>954</v>
       </c>
       <c r="D85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F85" t="s">
+        <v>956</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="J85" t="s">
+        <v>960</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="L85" t="s">
+        <v>962</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="N85" t="s">
+        <v>964</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="P85" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:62">
       <c r="A86" t="s">
-        <v>257</v>
+        <v>967</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>968</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>259</v>
+        <v>969</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F86" t="s">
+        <v>971</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="H86" t="s">
+        <v>973</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="J86" t="s">
+        <v>975</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="L86" t="s">
+        <v>977</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="P86" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="R86" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:62">
       <c r="A87" t="s">
-        <v>260</v>
+        <v>984</v>
       </c>
       <c r="B87" t="s">
-        <v>261</v>
+        <v>985</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>262</v>
+        <v>986</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F87" t="s">
+        <v>988</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="J87" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:62">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>993</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>994</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>265</v>
+        <v>995</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F88" t="s">
+        <v>997</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H88" t="s">
+        <v>999</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:62">
       <c r="A89" t="s">
-        <v>266</v>
+        <v>1008</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>1009</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>268</v>
+        <v>1010</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:62">
       <c r="A90" t="s">
-        <v>269</v>
+        <v>1025</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>1026</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2539,105 +7452,477 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:62">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>1027</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>1028</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>273</v>
+        <v>1029</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="92" spans="1:62">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>1042</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>1043</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>276</v>
+        <v>1044</v>
       </c>
       <c r="D92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="E92" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1058</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1062</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="X92" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:62">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>1065</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>1066</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>279</v>
+        <v>1067</v>
       </c>
       <c r="D93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="94" spans="1:62">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>1080</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>1081</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>282</v>
+        <v>1082</v>
       </c>
       <c r="D94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R94" t="s">
+        <v>1096</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="T94" t="s">
+        <v>1098</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1100</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="X94" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AC94" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AE94" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AG94" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AH94" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AI94" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AK94" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AM94" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AO94" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AQ94" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AS94" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AT94" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AU94" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AW94" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AX94" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AY94" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AZ94" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="BA94" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>1131</v>
+      </c>
+      <c r="BC94" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BD94" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BE94" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="BF94" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BG94" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BH94" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BI94" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BJ94" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:62">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>1140</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>1141</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>285</v>
+        <v>1142</v>
       </c>
       <c r="D95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:62">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>1147</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>1148</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>288</v>
+        <v>1149</v>
       </c>
       <c r="D96">
         <v>5</v>
       </c>
+      <c r="E96" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="T96" t="s">
+        <v>1165</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>1168</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>1169</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>291</v>
+        <v>1170</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2645,91 +7930,531 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C23" r:id="rId18"/>
-    <hyperlink ref="C24" r:id="rId19"/>
-    <hyperlink ref="C26" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C29" r:id="rId23"/>
-    <hyperlink ref="C30" r:id="rId24"/>
-    <hyperlink ref="C31" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="C34" r:id="rId28"/>
-    <hyperlink ref="C35" r:id="rId29"/>
-    <hyperlink ref="C36" r:id="rId30"/>
-    <hyperlink ref="C37" r:id="rId31"/>
-    <hyperlink ref="C38" r:id="rId32"/>
-    <hyperlink ref="C39" r:id="rId33"/>
-    <hyperlink ref="C40" r:id="rId34"/>
-    <hyperlink ref="C41" r:id="rId35"/>
-    <hyperlink ref="C42" r:id="rId36"/>
-    <hyperlink ref="C43" r:id="rId37"/>
-    <hyperlink ref="C44" r:id="rId38"/>
-    <hyperlink ref="C45" r:id="rId39"/>
-    <hyperlink ref="C46" r:id="rId40"/>
-    <hyperlink ref="C47" r:id="rId41"/>
-    <hyperlink ref="C48" r:id="rId42"/>
-    <hyperlink ref="C49" r:id="rId43"/>
-    <hyperlink ref="C50" r:id="rId44"/>
-    <hyperlink ref="C51" r:id="rId45"/>
-    <hyperlink ref="C52" r:id="rId46"/>
-    <hyperlink ref="C53" r:id="rId47"/>
-    <hyperlink ref="C54" r:id="rId48"/>
-    <hyperlink ref="C57" r:id="rId49"/>
-    <hyperlink ref="C58" r:id="rId50"/>
-    <hyperlink ref="C59" r:id="rId51"/>
-    <hyperlink ref="C60" r:id="rId52"/>
-    <hyperlink ref="C61" r:id="rId53"/>
-    <hyperlink ref="C62" r:id="rId54"/>
-    <hyperlink ref="C63" r:id="rId55"/>
-    <hyperlink ref="C64" r:id="rId56"/>
-    <hyperlink ref="C65" r:id="rId57"/>
-    <hyperlink ref="C66" r:id="rId58"/>
-    <hyperlink ref="C67" r:id="rId59"/>
-    <hyperlink ref="C68" r:id="rId60"/>
-    <hyperlink ref="C69" r:id="rId61"/>
-    <hyperlink ref="C70" r:id="rId62"/>
-    <hyperlink ref="C71" r:id="rId63"/>
-    <hyperlink ref="C72" r:id="rId64"/>
-    <hyperlink ref="C73" r:id="rId65"/>
-    <hyperlink ref="C74" r:id="rId66"/>
-    <hyperlink ref="C75" r:id="rId67"/>
-    <hyperlink ref="C76" r:id="rId68"/>
-    <hyperlink ref="C77" r:id="rId69"/>
-    <hyperlink ref="C78" r:id="rId70"/>
-    <hyperlink ref="C79" r:id="rId71"/>
-    <hyperlink ref="C80" r:id="rId72"/>
-    <hyperlink ref="C81" r:id="rId73"/>
-    <hyperlink ref="C82" r:id="rId74"/>
-    <hyperlink ref="C83" r:id="rId75"/>
-    <hyperlink ref="C84" r:id="rId76"/>
-    <hyperlink ref="C85" r:id="rId77"/>
-    <hyperlink ref="C86" r:id="rId78"/>
-    <hyperlink ref="C87" r:id="rId79"/>
-    <hyperlink ref="C88" r:id="rId80"/>
-    <hyperlink ref="C89" r:id="rId81"/>
-    <hyperlink ref="C91" r:id="rId82"/>
-    <hyperlink ref="C92" r:id="rId83"/>
-    <hyperlink ref="C93" r:id="rId84"/>
-    <hyperlink ref="C94" r:id="rId85"/>
-    <hyperlink ref="C95" r:id="rId86"/>
-    <hyperlink ref="C96" r:id="rId87"/>
-    <hyperlink ref="C97" r:id="rId88"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="K5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
+    <hyperlink ref="O5" r:id="rId9"/>
+    <hyperlink ref="Q5" r:id="rId10"/>
+    <hyperlink ref="S5" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="E6" r:id="rId13"/>
+    <hyperlink ref="G6" r:id="rId14"/>
+    <hyperlink ref="I6" r:id="rId15"/>
+    <hyperlink ref="K6" r:id="rId16"/>
+    <hyperlink ref="M6" r:id="rId17"/>
+    <hyperlink ref="C7" r:id="rId18"/>
+    <hyperlink ref="E7" r:id="rId19"/>
+    <hyperlink ref="G7" r:id="rId20"/>
+    <hyperlink ref="I7" r:id="rId21"/>
+    <hyperlink ref="K7" r:id="rId22"/>
+    <hyperlink ref="M7" r:id="rId23"/>
+    <hyperlink ref="O7" r:id="rId24"/>
+    <hyperlink ref="Q7" r:id="rId25"/>
+    <hyperlink ref="S7" r:id="rId26"/>
+    <hyperlink ref="U7" r:id="rId27"/>
+    <hyperlink ref="W7" r:id="rId28"/>
+    <hyperlink ref="Y7" r:id="rId29"/>
+    <hyperlink ref="AA7" r:id="rId30"/>
+    <hyperlink ref="AC7" r:id="rId31"/>
+    <hyperlink ref="AE7" r:id="rId32"/>
+    <hyperlink ref="AG7" r:id="rId33"/>
+    <hyperlink ref="AI7" r:id="rId34"/>
+    <hyperlink ref="AK7" r:id="rId35"/>
+    <hyperlink ref="C8" r:id="rId36"/>
+    <hyperlink ref="E8" r:id="rId37"/>
+    <hyperlink ref="G8" r:id="rId38"/>
+    <hyperlink ref="I8" r:id="rId39"/>
+    <hyperlink ref="K8" r:id="rId40"/>
+    <hyperlink ref="M8" r:id="rId41"/>
+    <hyperlink ref="O8" r:id="rId42"/>
+    <hyperlink ref="Q8" r:id="rId43"/>
+    <hyperlink ref="C9" r:id="rId44"/>
+    <hyperlink ref="E9" r:id="rId45"/>
+    <hyperlink ref="G9" r:id="rId46"/>
+    <hyperlink ref="I9" r:id="rId47"/>
+    <hyperlink ref="K9" r:id="rId48"/>
+    <hyperlink ref="M9" r:id="rId49"/>
+    <hyperlink ref="O9" r:id="rId50"/>
+    <hyperlink ref="Q9" r:id="rId51"/>
+    <hyperlink ref="C10" r:id="rId52"/>
+    <hyperlink ref="E10" r:id="rId53"/>
+    <hyperlink ref="G10" r:id="rId54"/>
+    <hyperlink ref="I10" r:id="rId55"/>
+    <hyperlink ref="K10" r:id="rId56"/>
+    <hyperlink ref="M10" r:id="rId57"/>
+    <hyperlink ref="O10" r:id="rId58"/>
+    <hyperlink ref="Q10" r:id="rId59"/>
+    <hyperlink ref="S10" r:id="rId60"/>
+    <hyperlink ref="U10" r:id="rId61"/>
+    <hyperlink ref="C11" r:id="rId62"/>
+    <hyperlink ref="E11" r:id="rId63"/>
+    <hyperlink ref="C12" r:id="rId64"/>
+    <hyperlink ref="E12" r:id="rId65"/>
+    <hyperlink ref="G12" r:id="rId66"/>
+    <hyperlink ref="I12" r:id="rId67"/>
+    <hyperlink ref="K12" r:id="rId68"/>
+    <hyperlink ref="M12" r:id="rId69"/>
+    <hyperlink ref="O12" r:id="rId70"/>
+    <hyperlink ref="Q12" r:id="rId71"/>
+    <hyperlink ref="C13" r:id="rId72"/>
+    <hyperlink ref="E13" r:id="rId73"/>
+    <hyperlink ref="G13" r:id="rId74"/>
+    <hyperlink ref="I13" r:id="rId75"/>
+    <hyperlink ref="C14" r:id="rId76"/>
+    <hyperlink ref="E14" r:id="rId77"/>
+    <hyperlink ref="G14" r:id="rId78"/>
+    <hyperlink ref="I14" r:id="rId79"/>
+    <hyperlink ref="C15" r:id="rId80"/>
+    <hyperlink ref="E15" r:id="rId81"/>
+    <hyperlink ref="G15" r:id="rId82"/>
+    <hyperlink ref="I15" r:id="rId83"/>
+    <hyperlink ref="K15" r:id="rId84"/>
+    <hyperlink ref="M15" r:id="rId85"/>
+    <hyperlink ref="O15" r:id="rId86"/>
+    <hyperlink ref="Q15" r:id="rId87"/>
+    <hyperlink ref="C16" r:id="rId88"/>
+    <hyperlink ref="E16" r:id="rId89"/>
+    <hyperlink ref="G16" r:id="rId90"/>
+    <hyperlink ref="C17" r:id="rId91"/>
+    <hyperlink ref="E17" r:id="rId92"/>
+    <hyperlink ref="G17" r:id="rId93"/>
+    <hyperlink ref="I17" r:id="rId94"/>
+    <hyperlink ref="K17" r:id="rId95"/>
+    <hyperlink ref="M17" r:id="rId96"/>
+    <hyperlink ref="C19" r:id="rId97"/>
+    <hyperlink ref="E19" r:id="rId98"/>
+    <hyperlink ref="G19" r:id="rId99"/>
+    <hyperlink ref="I19" r:id="rId100"/>
+    <hyperlink ref="K19" r:id="rId101"/>
+    <hyperlink ref="M19" r:id="rId102"/>
+    <hyperlink ref="O19" r:id="rId103"/>
+    <hyperlink ref="Q19" r:id="rId104"/>
+    <hyperlink ref="C22" r:id="rId105"/>
+    <hyperlink ref="E22" r:id="rId106"/>
+    <hyperlink ref="G22" r:id="rId107"/>
+    <hyperlink ref="I22" r:id="rId108"/>
+    <hyperlink ref="K22" r:id="rId109"/>
+    <hyperlink ref="M22" r:id="rId110"/>
+    <hyperlink ref="O22" r:id="rId111"/>
+    <hyperlink ref="C23" r:id="rId112"/>
+    <hyperlink ref="E23" r:id="rId113"/>
+    <hyperlink ref="G23" r:id="rId114"/>
+    <hyperlink ref="I23" r:id="rId115"/>
+    <hyperlink ref="K23" r:id="rId116"/>
+    <hyperlink ref="M23" r:id="rId117"/>
+    <hyperlink ref="O23" r:id="rId118"/>
+    <hyperlink ref="C24" r:id="rId119"/>
+    <hyperlink ref="C26" r:id="rId120"/>
+    <hyperlink ref="E26" r:id="rId121"/>
+    <hyperlink ref="G26" r:id="rId122"/>
+    <hyperlink ref="I26" r:id="rId123"/>
+    <hyperlink ref="K26" r:id="rId124"/>
+    <hyperlink ref="M26" r:id="rId125"/>
+    <hyperlink ref="O26" r:id="rId126"/>
+    <hyperlink ref="C27" r:id="rId127"/>
+    <hyperlink ref="E27" r:id="rId128"/>
+    <hyperlink ref="G27" r:id="rId129"/>
+    <hyperlink ref="I27" r:id="rId130"/>
+    <hyperlink ref="K27" r:id="rId131"/>
+    <hyperlink ref="C28" r:id="rId132"/>
+    <hyperlink ref="E28" r:id="rId133"/>
+    <hyperlink ref="G28" r:id="rId134"/>
+    <hyperlink ref="I28" r:id="rId135"/>
+    <hyperlink ref="C29" r:id="rId136"/>
+    <hyperlink ref="E29" r:id="rId137"/>
+    <hyperlink ref="G29" r:id="rId138"/>
+    <hyperlink ref="C30" r:id="rId139"/>
+    <hyperlink ref="E30" r:id="rId140"/>
+    <hyperlink ref="G30" r:id="rId141"/>
+    <hyperlink ref="I30" r:id="rId142"/>
+    <hyperlink ref="K30" r:id="rId143"/>
+    <hyperlink ref="M30" r:id="rId144"/>
+    <hyperlink ref="O30" r:id="rId145"/>
+    <hyperlink ref="Q30" r:id="rId146"/>
+    <hyperlink ref="C31" r:id="rId147"/>
+    <hyperlink ref="E31" r:id="rId148"/>
+    <hyperlink ref="G31" r:id="rId149"/>
+    <hyperlink ref="I31" r:id="rId150"/>
+    <hyperlink ref="K31" r:id="rId151"/>
+    <hyperlink ref="M31" r:id="rId152"/>
+    <hyperlink ref="O31" r:id="rId153"/>
+    <hyperlink ref="C32" r:id="rId154"/>
+    <hyperlink ref="E32" r:id="rId155"/>
+    <hyperlink ref="G32" r:id="rId156"/>
+    <hyperlink ref="I32" r:id="rId157"/>
+    <hyperlink ref="K32" r:id="rId158"/>
+    <hyperlink ref="M32" r:id="rId159"/>
+    <hyperlink ref="O32" r:id="rId160"/>
+    <hyperlink ref="C33" r:id="rId161"/>
+    <hyperlink ref="E33" r:id="rId162"/>
+    <hyperlink ref="G33" r:id="rId163"/>
+    <hyperlink ref="I33" r:id="rId164"/>
+    <hyperlink ref="C34" r:id="rId165"/>
+    <hyperlink ref="C35" r:id="rId166"/>
+    <hyperlink ref="E35" r:id="rId167"/>
+    <hyperlink ref="G35" r:id="rId168"/>
+    <hyperlink ref="I35" r:id="rId169"/>
+    <hyperlink ref="K35" r:id="rId170"/>
+    <hyperlink ref="M35" r:id="rId171"/>
+    <hyperlink ref="O35" r:id="rId172"/>
+    <hyperlink ref="Q35" r:id="rId173"/>
+    <hyperlink ref="C36" r:id="rId174"/>
+    <hyperlink ref="E36" r:id="rId175"/>
+    <hyperlink ref="G36" r:id="rId176"/>
+    <hyperlink ref="C37" r:id="rId177"/>
+    <hyperlink ref="C38" r:id="rId178"/>
+    <hyperlink ref="E38" r:id="rId179"/>
+    <hyperlink ref="G38" r:id="rId180"/>
+    <hyperlink ref="I38" r:id="rId181"/>
+    <hyperlink ref="K38" r:id="rId182"/>
+    <hyperlink ref="M38" r:id="rId183"/>
+    <hyperlink ref="O38" r:id="rId184"/>
+    <hyperlink ref="Q38" r:id="rId185"/>
+    <hyperlink ref="S38" r:id="rId186"/>
+    <hyperlink ref="C39" r:id="rId187"/>
+    <hyperlink ref="E39" r:id="rId188"/>
+    <hyperlink ref="G39" r:id="rId189"/>
+    <hyperlink ref="I39" r:id="rId190"/>
+    <hyperlink ref="K39" r:id="rId191"/>
+    <hyperlink ref="M39" r:id="rId192"/>
+    <hyperlink ref="O39" r:id="rId193"/>
+    <hyperlink ref="Q39" r:id="rId194"/>
+    <hyperlink ref="S39" r:id="rId195"/>
+    <hyperlink ref="U39" r:id="rId196"/>
+    <hyperlink ref="W39" r:id="rId197"/>
+    <hyperlink ref="C40" r:id="rId198"/>
+    <hyperlink ref="C41" r:id="rId199"/>
+    <hyperlink ref="E41" r:id="rId200"/>
+    <hyperlink ref="G41" r:id="rId201"/>
+    <hyperlink ref="C42" r:id="rId202"/>
+    <hyperlink ref="E42" r:id="rId203"/>
+    <hyperlink ref="G42" r:id="rId204"/>
+    <hyperlink ref="I42" r:id="rId205"/>
+    <hyperlink ref="K42" r:id="rId206"/>
+    <hyperlink ref="M42" r:id="rId207"/>
+    <hyperlink ref="C43" r:id="rId208"/>
+    <hyperlink ref="E43" r:id="rId209"/>
+    <hyperlink ref="C44" r:id="rId210"/>
+    <hyperlink ref="E44" r:id="rId211"/>
+    <hyperlink ref="G44" r:id="rId212"/>
+    <hyperlink ref="I44" r:id="rId213"/>
+    <hyperlink ref="K44" r:id="rId214"/>
+    <hyperlink ref="C45" r:id="rId215"/>
+    <hyperlink ref="E45" r:id="rId216"/>
+    <hyperlink ref="G45" r:id="rId217"/>
+    <hyperlink ref="I45" r:id="rId218"/>
+    <hyperlink ref="K45" r:id="rId219"/>
+    <hyperlink ref="C46" r:id="rId220"/>
+    <hyperlink ref="E46" r:id="rId221"/>
+    <hyperlink ref="G46" r:id="rId222"/>
+    <hyperlink ref="C47" r:id="rId223"/>
+    <hyperlink ref="E47" r:id="rId224"/>
+    <hyperlink ref="C48" r:id="rId225"/>
+    <hyperlink ref="E48" r:id="rId226"/>
+    <hyperlink ref="G48" r:id="rId227"/>
+    <hyperlink ref="I48" r:id="rId228"/>
+    <hyperlink ref="K48" r:id="rId229"/>
+    <hyperlink ref="M48" r:id="rId230"/>
+    <hyperlink ref="O48" r:id="rId231"/>
+    <hyperlink ref="C49" r:id="rId232"/>
+    <hyperlink ref="C50" r:id="rId233"/>
+    <hyperlink ref="C51" r:id="rId234"/>
+    <hyperlink ref="E51" r:id="rId235"/>
+    <hyperlink ref="G51" r:id="rId236"/>
+    <hyperlink ref="I51" r:id="rId237"/>
+    <hyperlink ref="K51" r:id="rId238"/>
+    <hyperlink ref="M51" r:id="rId239"/>
+    <hyperlink ref="O51" r:id="rId240"/>
+    <hyperlink ref="Q51" r:id="rId241"/>
+    <hyperlink ref="S51" r:id="rId242"/>
+    <hyperlink ref="U51" r:id="rId243"/>
+    <hyperlink ref="W51" r:id="rId244"/>
+    <hyperlink ref="Y51" r:id="rId245"/>
+    <hyperlink ref="C52" r:id="rId246"/>
+    <hyperlink ref="E52" r:id="rId247"/>
+    <hyperlink ref="G52" r:id="rId248"/>
+    <hyperlink ref="I52" r:id="rId249"/>
+    <hyperlink ref="K52" r:id="rId250"/>
+    <hyperlink ref="M52" r:id="rId251"/>
+    <hyperlink ref="O52" r:id="rId252"/>
+    <hyperlink ref="C53" r:id="rId253"/>
+    <hyperlink ref="E53" r:id="rId254"/>
+    <hyperlink ref="G53" r:id="rId255"/>
+    <hyperlink ref="I53" r:id="rId256"/>
+    <hyperlink ref="K53" r:id="rId257"/>
+    <hyperlink ref="M53" r:id="rId258"/>
+    <hyperlink ref="O53" r:id="rId259"/>
+    <hyperlink ref="C54" r:id="rId260"/>
+    <hyperlink ref="E54" r:id="rId261"/>
+    <hyperlink ref="G54" r:id="rId262"/>
+    <hyperlink ref="I54" r:id="rId263"/>
+    <hyperlink ref="K54" r:id="rId264"/>
+    <hyperlink ref="M54" r:id="rId265"/>
+    <hyperlink ref="C57" r:id="rId266"/>
+    <hyperlink ref="E57" r:id="rId267"/>
+    <hyperlink ref="G57" r:id="rId268"/>
+    <hyperlink ref="I57" r:id="rId269"/>
+    <hyperlink ref="K57" r:id="rId270"/>
+    <hyperlink ref="M57" r:id="rId271"/>
+    <hyperlink ref="O57" r:id="rId272"/>
+    <hyperlink ref="Q57" r:id="rId273"/>
+    <hyperlink ref="S57" r:id="rId274"/>
+    <hyperlink ref="C58" r:id="rId275"/>
+    <hyperlink ref="C59" r:id="rId276"/>
+    <hyperlink ref="E59" r:id="rId277"/>
+    <hyperlink ref="G59" r:id="rId278"/>
+    <hyperlink ref="I59" r:id="rId279"/>
+    <hyperlink ref="K59" r:id="rId280"/>
+    <hyperlink ref="M59" r:id="rId281"/>
+    <hyperlink ref="O59" r:id="rId282"/>
+    <hyperlink ref="Q59" r:id="rId283"/>
+    <hyperlink ref="C60" r:id="rId284"/>
+    <hyperlink ref="C61" r:id="rId285"/>
+    <hyperlink ref="E61" r:id="rId286"/>
+    <hyperlink ref="G61" r:id="rId287"/>
+    <hyperlink ref="I61" r:id="rId288"/>
+    <hyperlink ref="K61" r:id="rId289"/>
+    <hyperlink ref="M61" r:id="rId290"/>
+    <hyperlink ref="O61" r:id="rId291"/>
+    <hyperlink ref="C62" r:id="rId292"/>
+    <hyperlink ref="E62" r:id="rId293"/>
+    <hyperlink ref="G62" r:id="rId294"/>
+    <hyperlink ref="I62" r:id="rId295"/>
+    <hyperlink ref="K62" r:id="rId296"/>
+    <hyperlink ref="M62" r:id="rId297"/>
+    <hyperlink ref="O62" r:id="rId298"/>
+    <hyperlink ref="C63" r:id="rId299"/>
+    <hyperlink ref="C64" r:id="rId300"/>
+    <hyperlink ref="E64" r:id="rId301"/>
+    <hyperlink ref="G64" r:id="rId302"/>
+    <hyperlink ref="I64" r:id="rId303"/>
+    <hyperlink ref="K64" r:id="rId304"/>
+    <hyperlink ref="M64" r:id="rId305"/>
+    <hyperlink ref="O64" r:id="rId306"/>
+    <hyperlink ref="C65" r:id="rId307"/>
+    <hyperlink ref="E65" r:id="rId308"/>
+    <hyperlink ref="G65" r:id="rId309"/>
+    <hyperlink ref="I65" r:id="rId310"/>
+    <hyperlink ref="K65" r:id="rId311"/>
+    <hyperlink ref="C66" r:id="rId312"/>
+    <hyperlink ref="E66" r:id="rId313"/>
+    <hyperlink ref="G66" r:id="rId314"/>
+    <hyperlink ref="I66" r:id="rId315"/>
+    <hyperlink ref="C67" r:id="rId316"/>
+    <hyperlink ref="E67" r:id="rId317"/>
+    <hyperlink ref="G67" r:id="rId318"/>
+    <hyperlink ref="I67" r:id="rId319"/>
+    <hyperlink ref="K67" r:id="rId320"/>
+    <hyperlink ref="M67" r:id="rId321"/>
+    <hyperlink ref="O67" r:id="rId322"/>
+    <hyperlink ref="C68" r:id="rId323"/>
+    <hyperlink ref="E68" r:id="rId324"/>
+    <hyperlink ref="G68" r:id="rId325"/>
+    <hyperlink ref="I68" r:id="rId326"/>
+    <hyperlink ref="K68" r:id="rId327"/>
+    <hyperlink ref="M68" r:id="rId328"/>
+    <hyperlink ref="O68" r:id="rId329"/>
+    <hyperlink ref="Q68" r:id="rId330"/>
+    <hyperlink ref="C69" r:id="rId331"/>
+    <hyperlink ref="E69" r:id="rId332"/>
+    <hyperlink ref="G69" r:id="rId333"/>
+    <hyperlink ref="C70" r:id="rId334"/>
+    <hyperlink ref="C71" r:id="rId335"/>
+    <hyperlink ref="E71" r:id="rId336"/>
+    <hyperlink ref="G71" r:id="rId337"/>
+    <hyperlink ref="C72" r:id="rId338"/>
+    <hyperlink ref="E72" r:id="rId339"/>
+    <hyperlink ref="G72" r:id="rId340"/>
+    <hyperlink ref="I72" r:id="rId341"/>
+    <hyperlink ref="K72" r:id="rId342"/>
+    <hyperlink ref="M72" r:id="rId343"/>
+    <hyperlink ref="C73" r:id="rId344"/>
+    <hyperlink ref="E73" r:id="rId345"/>
+    <hyperlink ref="G73" r:id="rId346"/>
+    <hyperlink ref="I73" r:id="rId347"/>
+    <hyperlink ref="K73" r:id="rId348"/>
+    <hyperlink ref="M73" r:id="rId349"/>
+    <hyperlink ref="O73" r:id="rId350"/>
+    <hyperlink ref="Q73" r:id="rId351"/>
+    <hyperlink ref="S73" r:id="rId352"/>
+    <hyperlink ref="U73" r:id="rId353"/>
+    <hyperlink ref="C74" r:id="rId354"/>
+    <hyperlink ref="E74" r:id="rId355"/>
+    <hyperlink ref="G74" r:id="rId356"/>
+    <hyperlink ref="I74" r:id="rId357"/>
+    <hyperlink ref="K74" r:id="rId358"/>
+    <hyperlink ref="M74" r:id="rId359"/>
+    <hyperlink ref="O74" r:id="rId360"/>
+    <hyperlink ref="C75" r:id="rId361"/>
+    <hyperlink ref="E75" r:id="rId362"/>
+    <hyperlink ref="G75" r:id="rId363"/>
+    <hyperlink ref="I75" r:id="rId364"/>
+    <hyperlink ref="K75" r:id="rId365"/>
+    <hyperlink ref="M75" r:id="rId366"/>
+    <hyperlink ref="O75" r:id="rId367"/>
+    <hyperlink ref="C76" r:id="rId368"/>
+    <hyperlink ref="E76" r:id="rId369"/>
+    <hyperlink ref="G76" r:id="rId370"/>
+    <hyperlink ref="I76" r:id="rId371"/>
+    <hyperlink ref="K76" r:id="rId372"/>
+    <hyperlink ref="M76" r:id="rId373"/>
+    <hyperlink ref="O76" r:id="rId374"/>
+    <hyperlink ref="C77" r:id="rId375"/>
+    <hyperlink ref="E77" r:id="rId376"/>
+    <hyperlink ref="G77" r:id="rId377"/>
+    <hyperlink ref="I77" r:id="rId378"/>
+    <hyperlink ref="K77" r:id="rId379"/>
+    <hyperlink ref="M77" r:id="rId380"/>
+    <hyperlink ref="O77" r:id="rId381"/>
+    <hyperlink ref="C78" r:id="rId382"/>
+    <hyperlink ref="E78" r:id="rId383"/>
+    <hyperlink ref="C79" r:id="rId384"/>
+    <hyperlink ref="E79" r:id="rId385"/>
+    <hyperlink ref="G79" r:id="rId386"/>
+    <hyperlink ref="I79" r:id="rId387"/>
+    <hyperlink ref="K79" r:id="rId388"/>
+    <hyperlink ref="M79" r:id="rId389"/>
+    <hyperlink ref="O79" r:id="rId390"/>
+    <hyperlink ref="Q79" r:id="rId391"/>
+    <hyperlink ref="C80" r:id="rId392"/>
+    <hyperlink ref="E80" r:id="rId393"/>
+    <hyperlink ref="G80" r:id="rId394"/>
+    <hyperlink ref="I80" r:id="rId395"/>
+    <hyperlink ref="K80" r:id="rId396"/>
+    <hyperlink ref="M80" r:id="rId397"/>
+    <hyperlink ref="O80" r:id="rId398"/>
+    <hyperlink ref="Q80" r:id="rId399"/>
+    <hyperlink ref="S80" r:id="rId400"/>
+    <hyperlink ref="U80" r:id="rId401"/>
+    <hyperlink ref="C81" r:id="rId402"/>
+    <hyperlink ref="E81" r:id="rId403"/>
+    <hyperlink ref="G81" r:id="rId404"/>
+    <hyperlink ref="I81" r:id="rId405"/>
+    <hyperlink ref="K81" r:id="rId406"/>
+    <hyperlink ref="M81" r:id="rId407"/>
+    <hyperlink ref="O81" r:id="rId408"/>
+    <hyperlink ref="C82" r:id="rId409"/>
+    <hyperlink ref="E82" r:id="rId410"/>
+    <hyperlink ref="G82" r:id="rId411"/>
+    <hyperlink ref="I82" r:id="rId412"/>
+    <hyperlink ref="K82" r:id="rId413"/>
+    <hyperlink ref="M82" r:id="rId414"/>
+    <hyperlink ref="O82" r:id="rId415"/>
+    <hyperlink ref="Q82" r:id="rId416"/>
+    <hyperlink ref="S82" r:id="rId417"/>
+    <hyperlink ref="C83" r:id="rId418"/>
+    <hyperlink ref="E83" r:id="rId419"/>
+    <hyperlink ref="G83" r:id="rId420"/>
+    <hyperlink ref="I83" r:id="rId421"/>
+    <hyperlink ref="C84" r:id="rId422"/>
+    <hyperlink ref="E84" r:id="rId423"/>
+    <hyperlink ref="G84" r:id="rId424"/>
+    <hyperlink ref="I84" r:id="rId425"/>
+    <hyperlink ref="C85" r:id="rId426"/>
+    <hyperlink ref="E85" r:id="rId427"/>
+    <hyperlink ref="G85" r:id="rId428"/>
+    <hyperlink ref="I85" r:id="rId429"/>
+    <hyperlink ref="K85" r:id="rId430"/>
+    <hyperlink ref="M85" r:id="rId431"/>
+    <hyperlink ref="O85" r:id="rId432"/>
+    <hyperlink ref="C86" r:id="rId433"/>
+    <hyperlink ref="E86" r:id="rId434"/>
+    <hyperlink ref="G86" r:id="rId435"/>
+    <hyperlink ref="I86" r:id="rId436"/>
+    <hyperlink ref="K86" r:id="rId437"/>
+    <hyperlink ref="M86" r:id="rId438"/>
+    <hyperlink ref="O86" r:id="rId439"/>
+    <hyperlink ref="Q86" r:id="rId440"/>
+    <hyperlink ref="C87" r:id="rId441"/>
+    <hyperlink ref="E87" r:id="rId442"/>
+    <hyperlink ref="G87" r:id="rId443"/>
+    <hyperlink ref="I87" r:id="rId444"/>
+    <hyperlink ref="C88" r:id="rId445"/>
+    <hyperlink ref="E88" r:id="rId446"/>
+    <hyperlink ref="G88" r:id="rId447"/>
+    <hyperlink ref="I88" r:id="rId448"/>
+    <hyperlink ref="K88" r:id="rId449"/>
+    <hyperlink ref="M88" r:id="rId450"/>
+    <hyperlink ref="O88" r:id="rId451"/>
+    <hyperlink ref="C89" r:id="rId452"/>
+    <hyperlink ref="E89" r:id="rId453"/>
+    <hyperlink ref="G89" r:id="rId454"/>
+    <hyperlink ref="I89" r:id="rId455"/>
+    <hyperlink ref="K89" r:id="rId456"/>
+    <hyperlink ref="M89" r:id="rId457"/>
+    <hyperlink ref="O89" r:id="rId458"/>
+    <hyperlink ref="Q89" r:id="rId459"/>
+    <hyperlink ref="C91" r:id="rId460"/>
+    <hyperlink ref="E91" r:id="rId461"/>
+    <hyperlink ref="G91" r:id="rId462"/>
+    <hyperlink ref="I91" r:id="rId463"/>
+    <hyperlink ref="K91" r:id="rId464"/>
+    <hyperlink ref="M91" r:id="rId465"/>
+    <hyperlink ref="O91" r:id="rId466"/>
+    <hyperlink ref="C92" r:id="rId467"/>
+    <hyperlink ref="E92" r:id="rId468"/>
+    <hyperlink ref="G92" r:id="rId469"/>
+    <hyperlink ref="I92" r:id="rId470"/>
+    <hyperlink ref="K92" r:id="rId471"/>
+    <hyperlink ref="M92" r:id="rId472"/>
+    <hyperlink ref="O92" r:id="rId473"/>
+    <hyperlink ref="Q92" r:id="rId474"/>
+    <hyperlink ref="S92" r:id="rId475"/>
+    <hyperlink ref="U92" r:id="rId476"/>
+    <hyperlink ref="W92" r:id="rId477"/>
+    <hyperlink ref="C93" r:id="rId478"/>
+    <hyperlink ref="E93" r:id="rId479"/>
+    <hyperlink ref="G93" r:id="rId480"/>
+    <hyperlink ref="I93" r:id="rId481"/>
+    <hyperlink ref="K93" r:id="rId482"/>
+    <hyperlink ref="M93" r:id="rId483"/>
+    <hyperlink ref="O93" r:id="rId484"/>
+    <hyperlink ref="C94" r:id="rId485"/>
+    <hyperlink ref="E94" r:id="rId486"/>
+    <hyperlink ref="G94" r:id="rId487"/>
+    <hyperlink ref="I94" r:id="rId488"/>
+    <hyperlink ref="K94" r:id="rId489"/>
+    <hyperlink ref="M94" r:id="rId490"/>
+    <hyperlink ref="O94" r:id="rId491"/>
+    <hyperlink ref="Q94" r:id="rId492"/>
+    <hyperlink ref="S94" r:id="rId493"/>
+    <hyperlink ref="U94" r:id="rId494"/>
+    <hyperlink ref="W94" r:id="rId495"/>
+    <hyperlink ref="Y94" r:id="rId496"/>
+    <hyperlink ref="AA94" r:id="rId497"/>
+    <hyperlink ref="AC94" r:id="rId498"/>
+    <hyperlink ref="AE94" r:id="rId499"/>
+    <hyperlink ref="AG94" r:id="rId500"/>
+    <hyperlink ref="AI94" r:id="rId501"/>
+    <hyperlink ref="AK94" r:id="rId502"/>
+    <hyperlink ref="AM94" r:id="rId503"/>
+    <hyperlink ref="AO94" r:id="rId504"/>
+    <hyperlink ref="AQ94" r:id="rId505"/>
+    <hyperlink ref="AS94" r:id="rId506"/>
+    <hyperlink ref="AU94" r:id="rId507"/>
+    <hyperlink ref="AW94" r:id="rId508"/>
+    <hyperlink ref="AY94" r:id="rId509"/>
+    <hyperlink ref="BA94" r:id="rId510"/>
+    <hyperlink ref="BC94" r:id="rId511"/>
+    <hyperlink ref="BE94" r:id="rId512"/>
+    <hyperlink ref="BG94" r:id="rId513"/>
+    <hyperlink ref="BI94" r:id="rId514"/>
+    <hyperlink ref="C95" r:id="rId515"/>
+    <hyperlink ref="E95" r:id="rId516"/>
+    <hyperlink ref="G95" r:id="rId517"/>
+    <hyperlink ref="C96" r:id="rId518"/>
+    <hyperlink ref="E96" r:id="rId519"/>
+    <hyperlink ref="G96" r:id="rId520"/>
+    <hyperlink ref="I96" r:id="rId521"/>
+    <hyperlink ref="K96" r:id="rId522"/>
+    <hyperlink ref="M96" r:id="rId523"/>
+    <hyperlink ref="O96" r:id="rId524"/>
+    <hyperlink ref="Q96" r:id="rId525"/>
+    <hyperlink ref="S96" r:id="rId526"/>
+    <hyperlink ref="U96" r:id="rId527"/>
+    <hyperlink ref="C97" r:id="rId528"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
